--- a/data/2023/fid/FID-ALT-KA-DE-16.xlsx
+++ b/data/2023/fid/FID-ALT-KA-DE-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="831">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -130,2308 +130,2314 @@
     <t>32.1940; 33.1949 - 93.2009(2012); 94.2014 -</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3;DE-3-19;DE-7;DE-8;DE-12;DE-14;DE-15;DE-17;DE-18;DE-20;DE-29;DE-30;DE-33;DE-38;DE-43;DE-66;DE-123;DE-56;DE-107;DE-355;DE-37;DE-22;DE-70;DE-824;DE-235;DE-Au3;DE-Wim7;DE-Mb50;DE-68;DE-185;DE-186;DE-Ka23a;DE-F36</t>
+  </si>
+  <si>
+    <t>1116428-1</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Journal of Roman military equipment studies</t>
+  </si>
+  <si>
+    <t>Oxbow Books [u.a.]</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>0961-3684</t>
+  </si>
+  <si>
+    <t>900;930</t>
+  </si>
+  <si>
+    <t>6,14;6,12;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1990 -</t>
+  </si>
+  <si>
+    <t>DE-16</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DE-F36</t>
+  </si>
+  <si>
+    <t>802676-2</t>
+  </si>
+  <si>
+    <t>Cronache di archeologia</t>
+  </si>
+  <si>
+    <t>Edizioni Quasar;Istituto di Archeologia</t>
+  </si>
+  <si>
+    <t>Roma;Catania</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>6,14;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>6780-5</t>
+  </si>
+  <si>
+    <t>12.1973 - 36.1997(2002) ; 37 (2018)-</t>
+  </si>
+  <si>
+    <t>DE-12</t>
+  </si>
+  <si>
+    <t>1120284-1</t>
+  </si>
+  <si>
+    <t>Cenacolo</t>
+  </si>
+  <si>
+    <t>Mandese</t>
+  </si>
+  <si>
+    <t>Taranto</t>
+  </si>
+  <si>
+    <t>0392-1409</t>
+  </si>
+  <si>
+    <t>910;940;840;850;860;700</t>
+  </si>
+  <si>
+    <t>9,10;8,2;FID-KUNST-DE-16;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1971 - 11/12.1981/82; N.S. 1.1989 - 3.1991; N.S. 4=16.1992 -27-39 ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1123483-0</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Hesperìa</t>
+  </si>
+  <si>
+    <t>Bretschneider</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>870;930</t>
+  </si>
+  <si>
+    <t>1.1990 - 9.1998; 10.2000; 11.1999 -</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-21;DE-30</t>
+  </si>
+  <si>
+    <t>188764-6</t>
+  </si>
+  <si>
+    <t>rb;ee;b</t>
+  </si>
+  <si>
+    <t>Kölner Römer-Illustrierte</t>
+  </si>
+  <si>
+    <t>Römisch-Germanisches Museum;Röm.-German. Museum;Histor. Museen</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>0179-5511</t>
+  </si>
+  <si>
+    <t>1.1974 -3; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>DE-1a</t>
+  </si>
+  <si>
+    <t>193214-7</t>
+  </si>
+  <si>
+    <t>Rivista di studi fenici</t>
+  </si>
+  <si>
+    <t>Edizioni Quasar;Fabrizio Serra Editore</t>
+  </si>
+  <si>
+    <t>Roma;Pisa</t>
+  </si>
+  <si>
+    <t>0390-3877</t>
+  </si>
+  <si>
+    <t>6,22;6,14;6,11;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1973 -</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-12;DE-21;DE-824;DE-F36</t>
+  </si>
+  <si>
+    <t>208203-2</t>
+  </si>
+  <si>
+    <t>Annual report and bulletin</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>215056-6</t>
+  </si>
+  <si>
+    <t>1.1937 - 13.1955/56(1958)</t>
+  </si>
+  <si>
+    <t>209774-6</t>
+  </si>
+  <si>
+    <t>Revue archéologique de Narbonnaise</t>
+  </si>
+  <si>
+    <t>Éd. de l'Association de la Revue Archéologique de Narbonnaise</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>fre</t>
+  </si>
+  <si>
+    <t>0557-7705</t>
+  </si>
+  <si>
+    <t>6,14;6,11;8,2;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1968 -</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>DE-7;DE-8;DE-12;DE-19;DE-715;DE-F36</t>
+  </si>
+  <si>
+    <t>212056-2</t>
+  </si>
+  <si>
+    <t>Belleten</t>
+  </si>
+  <si>
+    <t>Türk Tarih Kurumu Basimevi</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>0041-4255</t>
+  </si>
+  <si>
+    <t>910;940;890</t>
+  </si>
+  <si>
+    <t>FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.1937 -   ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-3-1;DE-12;DE-18;DE-19;DE-21;DE-212;DE-473;DE-F36</t>
+  </si>
+  <si>
+    <t>721143-0</t>
+  </si>
+  <si>
+    <t>Pallas</t>
+  </si>
+  <si>
+    <t>Presses Universitaires du Mirail, PUM</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>0031-0387</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>1.1953 -</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-352;DE-355;DE-385;DE-F36</t>
+  </si>
+  <si>
+    <t>2132372-0</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Journal of intercultural and interdisciplinary archaeology</t>
+  </si>
+  <si>
+    <t>Propylaeum</t>
+  </si>
+  <si>
+    <t>Heidelberg;Ottaviano</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>1824-1670</t>
+  </si>
+  <si>
+    <t>Nr. 1.2003 [?] ; No 1 (2014)-no. 3 (2019) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>http://journals.ub.uni-heidelberg.de/index.php/jiia;http://www.bibliothek.uni-regensburg.de/ezeit/?2132372</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>2176785-3</t>
+  </si>
+  <si>
+    <t>Revue annuelle</t>
+  </si>
+  <si>
+    <t>Aouras</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>1766-8336</t>
+  </si>
+  <si>
+    <t>6,12;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>No 1(décembre 2003)-</t>
+  </si>
+  <si>
+    <t>1480603-4</t>
+  </si>
+  <si>
+    <t>Göttinger Forum für Altertumswissenschaft</t>
+  </si>
+  <si>
+    <t>Propylaeum;Edition Ruprecht</t>
+  </si>
+  <si>
+    <t>Heidelberg;Göttingen</t>
+  </si>
+  <si>
+    <t>1437-9074</t>
+  </si>
+  <si>
+    <t>930;870</t>
+  </si>
+  <si>
+    <t>1476096-4</t>
+  </si>
+  <si>
+    <t>1.1998 -</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/gfa/issue/archive;http://www.bibliothek.uni-regensburg.de/ezeit/?1480603</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2570231-2</t>
+  </si>
+  <si>
+    <t>Archeomatica</t>
+  </si>
+  <si>
+    <t>A&amp;C 2000</t>
+  </si>
+  <si>
+    <t>2037-2485</t>
+  </si>
+  <si>
+    <t>[1.]2009/10,0-1; 1.2009/10,2-4; 2.2011 -</t>
+  </si>
+  <si>
+    <t>2266174-8</t>
+  </si>
+  <si>
+    <t>Notiziario della Soprintendenza per i Beni Archeologici della Toscana</t>
+  </si>
+  <si>
+    <t>All'Insegna del Giglio</t>
+  </si>
+  <si>
+    <t>Borgo S.Lorenzo</t>
+  </si>
+  <si>
+    <t>2035-5297</t>
+  </si>
+  <si>
+    <t>6,11;6,14;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.2005(2006) -</t>
+  </si>
+  <si>
+    <t>2581235-X</t>
+  </si>
+  <si>
+    <t>ld;dm;la;b</t>
+  </si>
+  <si>
+    <t>Archäologie und Kunst</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Breslau</t>
+  </si>
+  <si>
+    <t>2195-9382</t>
+  </si>
+  <si>
+    <t>930;700</t>
+  </si>
+  <si>
+    <t>6,14;9,10;FID-ALT-KA-DE-16;FID-KUNST-DE-16</t>
+  </si>
+  <si>
+    <t>1.1828,1; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>http://archaeologie-und-kunst.uni-hd.de;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-54707;http://opacplus.bsb-muenchen.de/title/718301-X;http://www.bibliothek.uni-regensburg.de/ezeit/?2581235</t>
+  </si>
+  <si>
+    <t>LF;LF;LF</t>
+  </si>
+  <si>
+    <t>2587573-5</t>
+  </si>
+  <si>
+    <t>ld;dm;d</t>
+  </si>
+  <si>
+    <t>Hallisches Winckelmannsprogramm</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>1.1876 - 28.1931</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.5985;http://www.bibliothek.uni-regensburg.de/ezeit/?2587573</t>
+  </si>
+  <si>
+    <t>2592124-1</t>
+  </si>
+  <si>
+    <t>Astigi vetus</t>
+  </si>
+  <si>
+    <t>Fundación Museo Historico Municipal de Écija</t>
+  </si>
+  <si>
+    <t>Écija</t>
+  </si>
+  <si>
+    <t>spa</t>
+  </si>
+  <si>
+    <t>1578-2573</t>
+  </si>
+  <si>
+    <t>Nr. 1.2001; 2.2006 -</t>
+  </si>
+  <si>
+    <t>2380570-5</t>
+  </si>
+  <si>
+    <t>Facta</t>
+  </si>
+  <si>
+    <t>Serra</t>
+  </si>
+  <si>
+    <t>Pisa;Roma</t>
+  </si>
+  <si>
+    <t>eng;fre;ita</t>
+  </si>
+  <si>
+    <t>1971-9051</t>
+  </si>
+  <si>
+    <t>930;670</t>
+  </si>
+  <si>
+    <t>6,11;6,12;6,14;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1.2007(2008) -</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-12</t>
+  </si>
+  <si>
+    <t>2622445-8</t>
+  </si>
+  <si>
+    <t>ld;dm;b</t>
+  </si>
+  <si>
+    <t>Limesblatt</t>
+  </si>
+  <si>
+    <t>Trier</t>
+  </si>
+  <si>
+    <t>2196-2081</t>
+  </si>
+  <si>
+    <t>[1].1892/93=Nr.1-5; 2.1893/94 - 7.1898/1902 = Nr. 6-34; Nr. 35.1903</t>
+  </si>
+  <si>
+    <t>http://limesblatt.uni-hd.de;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-89287;http://www.bibliothek.uni-regensburg.de/ezeit/?2622445</t>
+  </si>
+  <si>
+    <t>LF;LF</t>
+  </si>
+  <si>
+    <t>2624134-1</t>
+  </si>
+  <si>
+    <t>Hellenika</t>
+  </si>
+  <si>
+    <t>Schwetschke</t>
+  </si>
+  <si>
+    <t>2196-2022</t>
+  </si>
+  <si>
+    <t>1.1846[?]</t>
+  </si>
+  <si>
+    <t>http://hellenika.uni-hd.de;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-90019;http://www.bibliothek.uni-regensburg.de/ezeit/?2624134</t>
+  </si>
+  <si>
+    <t>2624142-0</t>
+  </si>
+  <si>
+    <t>Bullettino archeologico napoletano</t>
+  </si>
+  <si>
+    <t>Cataneo</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>2196-1883</t>
+  </si>
+  <si>
+    <t>2624140-7</t>
+  </si>
+  <si>
+    <t>1.1842/43 - 6.1847/48; N.S. 1.1852/53 - 8.1860(1863)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.9533;http://www.bibliothek.uni-regensburg.de/ezeit/?2624142;http://opacplus.bsb-muenchen.de/title/401126-0;http://194.183.10.76/PeriodicoScheda.aspx?id_testata=16&amp;Start=0</t>
+  </si>
+  <si>
+    <t>3058145-X</t>
+  </si>
+  <si>
+    <t>Telestes</t>
+  </si>
+  <si>
+    <t>Istituti editoriali e poligrafici internazionali</t>
+  </si>
+  <si>
+    <t>ita;eng</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>FID-MUS-DE-12;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1 (2021)-</t>
+  </si>
+  <si>
+    <t>DE-12;DE-20</t>
+  </si>
+  <si>
+    <t>3058487-5</t>
+  </si>
+  <si>
+    <t>Annual Review ...</t>
+  </si>
+  <si>
+    <t>Propylaeum;Chartered Institute for Archaeologists</t>
+  </si>
+  <si>
+    <t>Heidelberg;Reading</t>
+  </si>
+  <si>
+    <t>2754-0456</t>
+  </si>
+  <si>
+    <t>2018/2019 [?]-</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/cifaanrev/index;http://www.bibliothek.uni-regensburg.de/ezeit/?3058487</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>3058504-1</t>
+  </si>
+  <si>
+    <t>The Archaeologist</t>
+  </si>
+  <si>
+    <t>2754-0448</t>
+  </si>
+  <si>
+    <t>Issue 106 (Winter 2019) [?]-</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/cifatamag/index;http://www.bibliothek.uni-regensburg.de/ezeit/?3058504</t>
+  </si>
+  <si>
+    <t>3058508-9</t>
+  </si>
+  <si>
+    <t>Yearbook and directory</t>
+  </si>
+  <si>
+    <t>2754-0464</t>
+  </si>
+  <si>
+    <t>2019 [?]-</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/cifayearb/index;http://www.bibliothek.uni-regensburg.de/ezeit/?3058508</t>
+  </si>
+  <si>
+    <t>3058514-4</t>
+  </si>
+  <si>
+    <t>Yakka</t>
+  </si>
+  <si>
+    <t>Museo Arqueológico Municipal Cayetano de Mergelina (MaYe);edit.um, Ediciones de la Universidad de Murcia;Servicio Municipal de Publicaciones</t>
+  </si>
+  <si>
+    <t>Yecla;Murcia</t>
+  </si>
+  <si>
+    <t>1130-3581</t>
+  </si>
+  <si>
+    <t>Año 1 (1989)- = No. 1-</t>
+  </si>
+  <si>
+    <t>2628639-7</t>
+  </si>
+  <si>
+    <t>Archaiologikē ephēmeris</t>
+  </si>
+  <si>
+    <t>En Athēnais</t>
+  </si>
+  <si>
+    <t>grc</t>
+  </si>
+  <si>
+    <t>2196-2189</t>
+  </si>
+  <si>
+    <t>2628658-0</t>
+  </si>
+  <si>
+    <t>2.Per. 1.1862(1863) - 17.1874; 1910 - 1925/26; 66/67.1927/28 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2628639;https://www.archetai.gr/index.php?p=content&amp;ion=1&amp;id=21&amp;lang=el;http://aephem.uni-hd.de;http://opacplus.bsb-muenchen.de/title/216375-5</t>
+  </si>
+  <si>
+    <t>2628642-7</t>
+  </si>
+  <si>
+    <t>Archäologisch-epigraphische Mitteilungen aus Österreich-Ungarn</t>
+  </si>
+  <si>
+    <t>Hölder</t>
+  </si>
+  <si>
+    <t>Wien</t>
+  </si>
+  <si>
+    <t>2196-2111</t>
+  </si>
+  <si>
+    <t>730;920;930</t>
+  </si>
+  <si>
+    <t>506173-8</t>
+  </si>
+  <si>
+    <t>1.1877 - 20.1897</t>
+  </si>
+  <si>
+    <t>http://opacplus.bsb-muenchen.de/title/506165-9;http://archepigrmoeu.uni-hd.de;http://www.bibliothek.uni-regensburg.de/ezeit/?2628642;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-93908</t>
+  </si>
+  <si>
+    <t>Ephēmeris archaiologikē</t>
+  </si>
+  <si>
+    <t>2196-2197;2196-2170</t>
+  </si>
+  <si>
+    <t>1837 - 1860; 1883 - 1909</t>
+  </si>
+  <si>
+    <t>http://aephem.uni-hd.de;https://www.archetai.gr/index.php?p=content&amp;section=1&amp;id=21&amp;lang=el;http://opacplus.bsb-muenchen.de/title/216376-7;http://www.bibliothek.uni-regensburg.de/ezeit/?2628658</t>
+  </si>
+  <si>
+    <t>2628666-X</t>
+  </si>
+  <si>
+    <t>la;b</t>
+  </si>
+  <si>
+    <t>Praktika tēs en Athēnais Archaiologikēs Hetaireias</t>
+  </si>
+  <si>
+    <t>Ē @en Athēnais Archaiologikē Etaireia</t>
+  </si>
+  <si>
+    <t>Athēnai</t>
+  </si>
+  <si>
+    <t>gre;fre</t>
+  </si>
+  <si>
+    <t>Tomos 1 (1837)-</t>
+  </si>
+  <si>
+    <t>https://www.archetai.gr/index.php?p=content&amp;ion=1&amp;id=20&amp;lang=el;https://www.ub.uni-heidelberg.de/fachinfo/archaeologie/zeitschriften/prakt.html;https://opacplus.bsb-muenchen.de/title/BV002576179;http://www.bibliothek.uni-regensburg.de/ezeit/?2628666</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-862;DE-863;DE-20;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523</t>
+  </si>
+  <si>
+    <t>2840513-4</t>
+  </si>
+  <si>
+    <t>Revue internationale d'histoire militaire ancienne</t>
+  </si>
+  <si>
+    <t>Klincksieck</t>
+  </si>
+  <si>
+    <t>[Paris]</t>
+  </si>
+  <si>
+    <t>fre;eng</t>
+  </si>
+  <si>
+    <t>2491-6943</t>
+  </si>
+  <si>
+    <t>6,12;6,14;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>2167820-0</t>
+  </si>
+  <si>
+    <t>No 1 (2015)-</t>
+  </si>
+  <si>
+    <t>DE-1a;DE-4;DE-12</t>
+  </si>
+  <si>
+    <t>2841985-6</t>
+  </si>
+  <si>
+    <t>The Brill Dictionary of Ancient Greek</t>
+  </si>
+  <si>
+    <t>Brill</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>930;870;880</t>
+  </si>
+  <si>
+    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2015 -</t>
+  </si>
+  <si>
+    <t>http://dictionaries.brillonline.com/montanari;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100901</t>
+  </si>
+  <si>
+    <t>3074099-X</t>
+  </si>
+  <si>
+    <t>Das Rollpodest</t>
+  </si>
+  <si>
+    <t>Institut für Klassische Archäologie der Universität Tübingen</t>
+  </si>
+  <si>
+    <t>Tübingen</t>
+  </si>
+  <si>
+    <t>https://rollpodest.hypotheses.org</t>
+  </si>
+  <si>
+    <t>2859869-6</t>
+  </si>
+  <si>
+    <t>Notiziario delle attività di tutela</t>
+  </si>
+  <si>
+    <t>Scorpione Editrice</t>
+  </si>
+  <si>
+    <t>2439490-7</t>
+  </si>
+  <si>
+    <t>Nuova serie, 2 (gennaio 2006/dicembre 2010)-</t>
+  </si>
+  <si>
+    <t>DE-355</t>
+  </si>
+  <si>
+    <t>2869725-X</t>
+  </si>
+  <si>
+    <t>rb;b</t>
+  </si>
+  <si>
+    <t>DAI Athenea</t>
+  </si>
+  <si>
+    <t>Deutsches Archäologisches Institut, Abteilung Athen</t>
+  </si>
+  <si>
+    <t>Athen</t>
+  </si>
+  <si>
+    <t>gre;ger</t>
+  </si>
+  <si>
+    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>2014-</t>
+  </si>
+  <si>
+    <t>3092179-X</t>
+  </si>
+  <si>
+    <t>Asia minor</t>
+  </si>
+  <si>
+    <t>Istituti editoriali e poligrafici internazionali;Fabrizio Serra Editore</t>
+  </si>
+  <si>
+    <t>2785-0277</t>
+  </si>
+  <si>
+    <t>I.2021-</t>
+  </si>
+  <si>
+    <t>DE-12;DE-20;DE-355</t>
+  </si>
+  <si>
+    <t>2873158-X</t>
+  </si>
+  <si>
+    <t>Journal of Greek archaeology</t>
+  </si>
+  <si>
+    <t>Archaeopress Publishing</t>
+  </si>
+  <si>
+    <t>2059-4674</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>Volume 1 (2016)-</t>
+  </si>
+  <si>
+    <t>DE-385</t>
+  </si>
+  <si>
+    <t>2875038-X</t>
+  </si>
+  <si>
+    <t>Journal of ancient history and archaeology</t>
+  </si>
+  <si>
+    <t>Editura Mega</t>
+  </si>
+  <si>
+    <t>Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>2360-266X</t>
+  </si>
+  <si>
+    <t>FID-ALT-KA-DE-16;FID-ALT-DE-12</t>
+  </si>
+  <si>
+    <t>No. 1, 1 (2014)-</t>
+  </si>
+  <si>
+    <t>http://www.jaha.org.ro/index.php/JAHA/issue/archive;https://www.ceeol.com/search/journal-detail?id=2175;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.bibliothek.uni-regensburg.de/ezeit/?2875038</t>
+  </si>
+  <si>
+    <t>LF;KF;NL</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
-    <t>DE-1a;DE-3;DE-3-19;DE-8;DE-12;DE-14;DE-15;DE-17;DE-18;DE-20;DE-29;DE-30;DE-33;DE-38;DE-43;DE-66;DE-123;DE-107;DE-355;DE-37;DE-22;DE-70;DE-824;DE-235;DE-Wim7;DE-Mb50;DE-68;DE-185;DE-186;DE-Ka23a;DE-F36</t>
-  </si>
-  <si>
-    <t>1116428-1</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Journal of Roman military equipment studies</t>
-  </si>
-  <si>
-    <t>Oxbow Books [u.a.]</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>0961-3684</t>
-  </si>
-  <si>
-    <t>900;930</t>
-  </si>
-  <si>
-    <t>6,14;6,12;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1990 -</t>
-  </si>
-  <si>
-    <t>DE-16</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DE-F36</t>
-  </si>
-  <si>
-    <t>802676-2</t>
-  </si>
-  <si>
-    <t>Cronache di archeologia</t>
-  </si>
-  <si>
-    <t>Edizioni Quasar;Istituto di Archeologia</t>
-  </si>
-  <si>
-    <t>Roma;Catania</t>
-  </si>
-  <si>
-    <t>ita</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>6,14;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>6780-5</t>
-  </si>
-  <si>
-    <t>12.1973 - 36.1997(2002) ; 37 (2018)-</t>
-  </si>
-  <si>
-    <t>DE-12</t>
-  </si>
-  <si>
-    <t>1120284-1</t>
-  </si>
-  <si>
-    <t>Cenacolo</t>
-  </si>
-  <si>
-    <t>Mandese</t>
-  </si>
-  <si>
-    <t>Taranto</t>
-  </si>
-  <si>
-    <t>0392-1409</t>
-  </si>
-  <si>
-    <t>910;940;840;850;860;700</t>
-  </si>
-  <si>
-    <t>9,10;8,2;FID-KUNST-DE-16;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1971 - 11/12.1981/82; N.S. 1.1989 - 3.1991; N.S. 4=16.1992 -27-39 ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1123483-0</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Hesperìa</t>
-  </si>
-  <si>
-    <t>Bretschneider</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>870;930</t>
-  </si>
-  <si>
-    <t>1.1990 - 9.1998; 10.2000; 11.1999 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-21;DE-30</t>
-  </si>
-  <si>
-    <t>188764-6</t>
-  </si>
-  <si>
-    <t>rb;ee;b</t>
-  </si>
-  <si>
-    <t>Kölner Römer-Illustrierte</t>
-  </si>
-  <si>
-    <t>Römisch-Germanisches Museum;Röm.-German. Museum;Histor. Museen</t>
-  </si>
-  <si>
-    <t>Köln</t>
-  </si>
-  <si>
-    <t>0179-5511</t>
-  </si>
-  <si>
-    <t>1.1974 -3; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>DE-1a</t>
-  </si>
-  <si>
-    <t>193214-7</t>
-  </si>
-  <si>
-    <t>Rivista di studi fenici</t>
-  </si>
-  <si>
-    <t>Edizioni Quasar;Fabrizio Serra Editore</t>
-  </si>
-  <si>
-    <t>Roma;Pisa</t>
-  </si>
-  <si>
-    <t>0390-3877</t>
-  </si>
-  <si>
-    <t>6,22;6,14;6,11;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1973 -</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-12;DE-21;DE-824;DE-F36</t>
-  </si>
-  <si>
-    <t>208203-2</t>
-  </si>
-  <si>
-    <t>Annual report and bulletin</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>215056-6</t>
-  </si>
-  <si>
-    <t>1.1937 - 13.1955/56(1958)</t>
-  </si>
-  <si>
-    <t>209774-6</t>
-  </si>
-  <si>
-    <t>Revue archéologique de Narbonnaise</t>
-  </si>
-  <si>
-    <t>Éd. de l'Association de la Revue Archéologique de Narbonnaise</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>fre</t>
-  </si>
-  <si>
-    <t>0557-7705</t>
-  </si>
-  <si>
-    <t>6,14;6,11;8,2;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1968 -</t>
+    <t>DE-12;DE-M352;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-90;DE-Mh39;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-521;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>3100563-9</t>
+  </si>
+  <si>
+    <t>RCRF Bibliography</t>
+  </si>
+  <si>
+    <t>Römisch-Germanisches Zentralmuseum</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>https://www1.rgzm.de/anadecom/BibliographySearchInput.cfm</t>
+  </si>
+  <si>
+    <t>2880222-6</t>
+  </si>
+  <si>
+    <t>Bulletin de l'Association Internationale pour l'Etude de la Mosai͏̈que Antique (AIEMA)</t>
+  </si>
+  <si>
+    <t>AIEMA</t>
+  </si>
+  <si>
+    <t>910;940;930</t>
+  </si>
+  <si>
+    <t>19.2003-</t>
+  </si>
+  <si>
+    <t>http://aiema75rs.wixsite.com/aiema/bulletins;http://www.bibliothek.uni-regensburg.de/ezeit/?2880222</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-Mh39;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2882730-2</t>
+  </si>
+  <si>
+    <t>Mastia</t>
+  </si>
+  <si>
+    <t>Ayuntamiento de Cartagena</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>2. época, número 1 (2002)-</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/revista?codigo=11316;http://www.bibliothek.uni-regensburg.de/ezeit/?2882730</t>
+  </si>
+  <si>
+    <t>2883563-3</t>
+  </si>
+  <si>
+    <t>Prähistorische Blätter</t>
+  </si>
+  <si>
+    <t>Verlag der Redaktion der "Prähistorischen Blätter"</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>2510-5752</t>
+  </si>
+  <si>
+    <t>1.1889 - 19.1907</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.32433;http://www.bibliothek.uni-regensburg.de/ezeit/?2883563</t>
+  </si>
+  <si>
+    <t>2883946-8</t>
+  </si>
+  <si>
+    <t>Journal of Hellenistic pottery and material culture</t>
+  </si>
+  <si>
+    <t>Archaeopress</t>
+  </si>
+  <si>
+    <t>2399-1844</t>
+  </si>
+  <si>
+    <t>1 (2016)-</t>
+  </si>
+  <si>
+    <t>2884527-4</t>
+  </si>
+  <si>
+    <t>Atti e memorie della Società Magna Grecia</t>
+  </si>
+  <si>
+    <t>Fabrizio Serra editore</t>
+  </si>
+  <si>
+    <t>000;930;870</t>
+  </si>
+  <si>
+    <t>4. serie, 6 (2014/2015)-</t>
+  </si>
+  <si>
+    <t>https://www.libraweb.net/articoli.php?chiave=201512901&amp;rivista=129;http://www.bibliothek.uni-regensburg.de/ezeit/?2884527</t>
+  </si>
+  <si>
+    <t>DE-7;DE-12</t>
+  </si>
+  <si>
+    <t>2887245-9</t>
+  </si>
+  <si>
+    <t>Athens University Review Of Archaeology</t>
+  </si>
+  <si>
+    <t>National and Kapodistrian University of Athens, Department of Archaeology and History</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>eng;grc</t>
+  </si>
+  <si>
+    <t>2623-3428</t>
+  </si>
+  <si>
+    <t>Vol. 1 (2018)-</t>
+  </si>
+  <si>
+    <t>http://epub.lib.uoa.gr/index.php/aura/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2887245</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-824;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2890893-4</t>
+  </si>
+  <si>
+    <t>Heritage Turkey</t>
+  </si>
+  <si>
+    <t>British Institute at Ankara</t>
+  </si>
+  <si>
+    <t>2057-889X</t>
+  </si>
+  <si>
+    <t>Volume 1 (2011)-</t>
+  </si>
+  <si>
+    <t>https://biaa.ac.uk/publication/heritage-turkey/;http://www.bibliothek.uni-regensburg.de/ezeit/?2890893</t>
+  </si>
+  <si>
+    <t>3112402-1</t>
+  </si>
+  <si>
+    <t>fp;d</t>
+  </si>
+  <si>
+    <t>Bodenaltertümer Westfalens</t>
+  </si>
+  <si>
+    <t>Propylaeum;von @Zabern</t>
+  </si>
+  <si>
+    <t>Heidelberg;Darmstadt</t>
+  </si>
+  <si>
+    <t>Band 1 -</t>
+  </si>
+  <si>
+    <t>https://books.ub.uni-heidelberg.de/propylaeum/series/info/baw</t>
+  </si>
+  <si>
+    <t>3119648-2</t>
+  </si>
+  <si>
+    <t>The journal of ancient architecture</t>
+  </si>
+  <si>
+    <t>2785-3861</t>
+  </si>
+  <si>
+    <t>1 (2022)-</t>
+  </si>
+  <si>
+    <t>DE-12;DE-15;DE-19</t>
+  </si>
+  <si>
+    <t>3121049-1</t>
+  </si>
+  <si>
+    <t>Pylon</t>
+  </si>
+  <si>
+    <t>Propylaeum;Heidelberg University, Institute for Papyrology</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>2751-4722</t>
+  </si>
+  <si>
+    <t>Vol. 1 (2022)-</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/pylon/;http://www.bibliothek.uni-regensburg.de/ezeit/?3121049</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-18;DE-19;DE-862;DE-863;DE-20;DE-26;DE-27;DE-28;DE-1102;DE-29;DE-946;DE-84;DE-89;DE-90;DE-95;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-960-1;DE-960-3;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>3121846-5</t>
+  </si>
+  <si>
+    <t>Archäologie weltweit</t>
+  </si>
+  <si>
+    <t>Deutsches Archäologisches Institut, Presse- und Öffentlichkeitsarbeit</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Sonderausgabe</t>
+  </si>
+  <si>
+    <t>6. Jahrgang (2021) [?]-</t>
+  </si>
+  <si>
+    <t>2899824-8</t>
+  </si>
+  <si>
+    <t>Diadora</t>
+  </si>
+  <si>
+    <t>Archaeological museum</t>
+  </si>
+  <si>
+    <t>Zadar</t>
+  </si>
+  <si>
+    <t>hrv;eng</t>
+  </si>
+  <si>
+    <t>2459-7694</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>Vol. 28 (2015)-</t>
+  </si>
+  <si>
+    <t>https://hrcak.srce.hr/diadora;http://www.bibliothek.uni-regensburg.de/ezeit/?2899824</t>
+  </si>
+  <si>
+    <t>2693523-5</t>
+  </si>
+  <si>
+    <t>Food and drink in Archaeology</t>
+  </si>
+  <si>
+    <t>Prospect Books</t>
+  </si>
+  <si>
+    <t>Blackawton</t>
+  </si>
+  <si>
+    <t>2902295-2</t>
+  </si>
+  <si>
+    <t>Westdeutsche Zeitschrift für Geschichte und Kunst</t>
+  </si>
+  <si>
+    <t>Lintz</t>
+  </si>
+  <si>
+    <t>2702-6132</t>
+  </si>
+  <si>
+    <t>FID-KUNST-DE-16;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>Korrespondenzblatt der "Westdeutschen Zeitschrift für Geschichte und Kunst"</t>
+  </si>
+  <si>
+    <t>1.1882 - 26.1907</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.36103;http://www.bibliothek.uni-regensburg.de/ezeit/?2902295</t>
+  </si>
+  <si>
+    <t>3128936-8</t>
+  </si>
+  <si>
+    <t>Sympozjum Egejskie</t>
+  </si>
+  <si>
+    <t>Institute of Archaeology, University of Warsaw;Brepols</t>
+  </si>
+  <si>
+    <t>Warszawa;Turnhout</t>
+  </si>
+  <si>
+    <t>Vol. 1 (2017)-</t>
+  </si>
+  <si>
+    <t>2910796-9</t>
+  </si>
+  <si>
+    <t>Preservation</t>
+  </si>
+  <si>
+    <t>National Trust for Historic Preservation</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>Spring (2015)-</t>
+  </si>
+  <si>
+    <t>https://savingplaces.org/preservation-magazine/issues/;http://www.bibliothek.uni-regensburg.de/ezeit/?2910796</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>DE-12;DE-M352;DE-19;DE-20;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-90;DE-91;DE-861;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-521;DE-703;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>3134881-6</t>
+  </si>
+  <si>
+    <t>Pompeii</t>
+  </si>
+  <si>
+    <t>[Parco archeologico di Pompei]</t>
+  </si>
+  <si>
+    <t>[Pompei (Napoli)]</t>
+  </si>
+  <si>
+    <t>ita;mul</t>
+  </si>
+  <si>
+    <t>http://open.pompeiisites.org/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=105218</t>
+  </si>
+  <si>
+    <t>3136337-4</t>
+  </si>
+  <si>
+    <t>EDCS-Journal</t>
+  </si>
+  <si>
+    <t>EDCS-Projekt</t>
+  </si>
+  <si>
+    <t>Eichstätt</t>
+  </si>
+  <si>
+    <t>ger;spa;ita;fre;eng</t>
+  </si>
+  <si>
+    <t>FID-ALT-KA-DE-16;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>1 (07/2020)-</t>
+  </si>
+  <si>
+    <t>https://db.edcs.eu/epigr/hinweise/edcs-journal.php?s_language=de;http://www.bibliothek.uni-regensburg.de/ezeit/?3136337</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>DE-12;DE-210;DE-M352;DE-19;DE-20;DE-26;DE-1102;DE-92;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-521;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>3140964-7</t>
+  </si>
+  <si>
+    <t>Arbeitshefte des Bayerischen Landesamtes für Denkmalpflege</t>
+  </si>
+  <si>
+    <t>Landesamt;Lipp</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1.1978-118 ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>3140986-6</t>
+  </si>
+  <si>
+    <t>Materialhefte zur bayerischen Vorgeschichte</t>
+  </si>
+  <si>
+    <t>Lassleben</t>
+  </si>
+  <si>
+    <t>Kallmünz/Opf.</t>
+  </si>
+  <si>
+    <t>3140995-7</t>
+  </si>
+  <si>
+    <t>1.1952 - 29.1974</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.63230</t>
+  </si>
+  <si>
+    <t>Lassleben;Verl. Grafische Werkstätte Graf</t>
+  </si>
+  <si>
+    <t>Kallmünz, Opf.;Fürth, Bay.</t>
+  </si>
+  <si>
+    <t>Fundinventare und Ausgrabungsbefunde</t>
+  </si>
+  <si>
+    <t>30.1976 - 94.2010</t>
+  </si>
+  <si>
+    <t>3140997-0</t>
+  </si>
+  <si>
+    <t>700;930</t>
+  </si>
+  <si>
+    <t>Inventare der Geländedenkmäler</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2.1983; 3.1975 - 4.1978; 6.1979; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>3141000-5</t>
+  </si>
+  <si>
+    <t>Das Archäologische Jahr in Bayern</t>
+  </si>
+  <si>
+    <t>Theiss;Wissenschaftliche Buchgesellschaft;Theiss</t>
+  </si>
+  <si>
+    <t>Darmstadt;Stuttgart</t>
+  </si>
+  <si>
+    <t>1980(1981) -</t>
+  </si>
+  <si>
+    <t>3141056-X</t>
+  </si>
+  <si>
+    <t>Jahresbericht der bayerischen Bodendenkmalpflege</t>
+  </si>
+  <si>
+    <t>Habelt</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>[1.]1960 - [3.]1962; 4.1963 - 21.1980</t>
+  </si>
+  <si>
+    <t>3141059-5</t>
+  </si>
+  <si>
+    <t>Bericht der bayerischen Bodendenkmalpflege</t>
+  </si>
+  <si>
+    <t>Selbstverl. d. Bayerischen Landesamtes für Denkmalpflege;Habelt</t>
+  </si>
+  <si>
+    <t>München;Bonn</t>
+  </si>
+  <si>
+    <t>930;914.3;943</t>
+  </si>
+  <si>
+    <t>22/23.1981/82(1986) -</t>
+  </si>
+  <si>
+    <t>3144256-0</t>
+  </si>
+  <si>
+    <t>Exodos Mesolongiu ar. 5</t>
+  </si>
+  <si>
+    <t>Ekdoseis Exodos</t>
+  </si>
+  <si>
+    <t>Athēna</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>2654-1114</t>
+  </si>
+  <si>
+    <t>4o teuchos (2022/2023) [?]-</t>
+  </si>
+  <si>
+    <t>2922566-8</t>
+  </si>
+  <si>
+    <t>Studia archeologiczne</t>
+  </si>
+  <si>
+    <t>Uniw.</t>
+  </si>
+  <si>
+    <t>Warszawa</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>2922571-1</t>
+  </si>
+  <si>
+    <t>Tom 1 (1981)-tom 4 (1985)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.41313;http://www.bibliothek.uni-regensburg.de/ezeit/?2922566</t>
+  </si>
+  <si>
+    <t>Studia i materiały archeologiczne</t>
+  </si>
+  <si>
+    <t>5.1987 - 9.1992; 10.2000 - 14.2014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.41314;http://www.bibliothek.uni-regensburg.de/ezeit/?2922571</t>
+  </si>
+  <si>
+    <t>3147442-1</t>
+  </si>
+  <si>
+    <t>Antiquitatum Thesaurus</t>
+  </si>
+  <si>
+    <t>Berlin-Brandenburgische Akademie der Wissenschaften</t>
+  </si>
+  <si>
+    <t>https://db.antiquitatum-thesaurus.eu/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=105398</t>
+  </si>
+  <si>
+    <t>2926916-7</t>
+  </si>
+  <si>
+    <t>Distant worlds journal</t>
+  </si>
+  <si>
+    <t>eng;ger</t>
+  </si>
+  <si>
+    <t>Special Issue</t>
+  </si>
+  <si>
+    <t>Vol. 1 (2016)-vol. 3 (2020) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/dwj/index</t>
+  </si>
+  <si>
+    <t>2929310-8</t>
+  </si>
+  <si>
+    <t>Nachrichten aus Niedersachsens Urgeschichte</t>
+  </si>
+  <si>
+    <t>Propylaeum;Theiss</t>
+  </si>
+  <si>
+    <t>2568-0161</t>
+  </si>
+  <si>
+    <t>914.3;943</t>
+  </si>
+  <si>
+    <t>2930698-X</t>
+  </si>
+  <si>
+    <t>1.1927(1928) - 16.1942; 17.1948 -</t>
+  </si>
+  <si>
+    <t>http://journals.ub.uni-heidelberg.de/index.php/nnu/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2929310</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-18;DE-19;DE-862;DE-20;DE-863;DE-26;DE-27;DE-28;DE-1102;DE-29;DE-946;DE-84;DE-89;DE-90;DE-95;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-703;DE-705;DE-739;DE-150;DE-573;DE-824;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2930119-1</t>
+  </si>
+  <si>
+    <t>Tübinger Forschungen zur Archäologie und Kunstgeschichte</t>
+  </si>
+  <si>
+    <t>Gryphius-Verl.</t>
+  </si>
+  <si>
+    <t>Reutlingen</t>
+  </si>
+  <si>
+    <t>Band 7 (?)-</t>
+  </si>
+  <si>
+    <t>http://digi.ub.uni-heidelberg.de/diglit/tfak</t>
+  </si>
+  <si>
+    <t>2930126-9</t>
+  </si>
+  <si>
+    <t>Disertacii</t>
+  </si>
+  <si>
+    <t>Nacionalen Archeologičeski Institut s Muzej</t>
+  </si>
+  <si>
+    <t>Sofija</t>
+  </si>
+  <si>
+    <t>bul;eng</t>
+  </si>
+  <si>
+    <t>2603-3100</t>
+  </si>
+  <si>
+    <t>Tom 10-</t>
+  </si>
+  <si>
+    <t>http://series.naim.bg/index.php/Dissertations</t>
+  </si>
+  <si>
+    <t>ld;b</t>
+  </si>
+  <si>
+    <t>Nachrichtenblatt für Niedersachsens Vorgeschichte</t>
+  </si>
+  <si>
+    <t>Lax</t>
+  </si>
+  <si>
+    <t>Hildesheim</t>
+  </si>
+  <si>
+    <t>2510-6635</t>
+  </si>
+  <si>
+    <t>1.1920 - 3.1922; N.S. 1.1924 - 3.1926</t>
+  </si>
+  <si>
+    <t>http://journals.ub.uni-heidelberg.de/index.php/nnu/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2930698</t>
+  </si>
+  <si>
+    <t>2935900-4</t>
+  </si>
+  <si>
+    <t>Römisch-germanische Forschungen</t>
+  </si>
+  <si>
+    <t>Reichert Verlag</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>Band 1-</t>
+  </si>
+  <si>
+    <t>http://digi.ub.uni-heidelberg.de/diglit/rgf</t>
+  </si>
+  <si>
+    <t>2937007-3</t>
+  </si>
+  <si>
+    <t>ra;b</t>
+  </si>
+  <si>
+    <t>Spektrum der Wissenschaft</t>
+  </si>
+  <si>
+    <t>Spektrum der Wissenschaft Verlagsgesellschaft mbH</t>
+  </si>
+  <si>
+    <t>2625-7971</t>
+  </si>
+  <si>
+    <t>930;900;300;000</t>
+  </si>
+  <si>
+    <t>Spektrum spezial;Archäologie, Geschichte, Kultur</t>
+  </si>
+  <si>
+    <t>2937010-3</t>
+  </si>
+  <si>
+    <t>2690681-8</t>
+  </si>
+  <si>
+    <t>16, 3-18, 1</t>
+  </si>
+  <si>
+    <t>2625-798X</t>
+  </si>
+  <si>
+    <t>930;900;300</t>
+  </si>
+  <si>
+    <t>Spezial;Archäologie, Geschichte, Kultur</t>
+  </si>
+  <si>
+    <t>2985757-0</t>
+  </si>
+  <si>
+    <t>18, 2-19, 4</t>
+  </si>
+  <si>
+    <t>2937896-5</t>
+  </si>
+  <si>
+    <t>Lebendige Antike</t>
+  </si>
+  <si>
+    <t>Dr. Frank Hennecke</t>
+  </si>
+  <si>
+    <t>Ludwigshafen am Rhein</t>
+  </si>
+  <si>
+    <t>2625-9524</t>
+  </si>
+  <si>
+    <t>3103495-0</t>
+  </si>
+  <si>
+    <t>2015/2016/2017</t>
+  </si>
+  <si>
+    <t>2938748-6</t>
+  </si>
+  <si>
+    <t>Quaderni di archeologia del Piemonte</t>
+  </si>
+  <si>
+    <t>[Wechselnde Verlage];Ministero dei Beni e delle Attività Culturali e del Turismo</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>2533-2597</t>
+  </si>
+  <si>
+    <t>803446-1</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>2941036-8</t>
+  </si>
+  <si>
+    <t>Ars Asiatica</t>
+  </si>
+  <si>
+    <t>Bruxelles [u.a.]</t>
+  </si>
+  <si>
+    <t>1.1914 - 18.1935[?]</t>
+  </si>
+  <si>
+    <t>http://digi.ub.uni-heidelberg.de/diglit/ars_asiatica</t>
+  </si>
+  <si>
+    <t>2941285-7</t>
+  </si>
+  <si>
+    <t>Oxford Scholarship Online</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>Classical studies collection</t>
+  </si>
+  <si>
+    <t>https://global.oup.com/academic/?lang=en&amp;cc=de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102589</t>
+  </si>
+  <si>
+    <t>2941295-X</t>
+  </si>
+  <si>
+    <t>Florida scholarship online</t>
+  </si>
+  <si>
+    <t>Oxford$nOxford University Press</t>
+  </si>
+  <si>
+    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>Archaeology collection</t>
+  </si>
+  <si>
+    <t>http://florida.universitypressscholarship.com/browse?t=OSO:archaeology;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102545</t>
+  </si>
+  <si>
+    <t>2734041-7</t>
+  </si>
+  <si>
+    <t>Jahreshefte des Österreichischen Archäologischen Institutes in Wien</t>
+  </si>
+  <si>
+    <t>Hölzel;Hölder</t>
+  </si>
+  <si>
+    <t>2522-5669</t>
+  </si>
+  <si>
+    <t>1.1898-Band 26 (1930)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.19226;http://www.bibliothek.uni-regensburg.de/ezeit/?2734041</t>
+  </si>
+  <si>
+    <t>2943921-8</t>
+  </si>
+  <si>
+    <t>Propylaeum–eBOOKS</t>
+  </si>
+  <si>
+    <t>ger;eng</t>
+  </si>
+  <si>
+    <t>http://books.ub.uni-heidelberg.de/propylaeum</t>
+  </si>
+  <si>
+    <t>2944368-4</t>
+  </si>
+  <si>
+    <t>Propylaeum;Landesamt für Denkmalpflege und Archäologie Sachsen-Anhalt, Landesmuseum für Vorgeschichte</t>
+  </si>
+  <si>
+    <t>Heidelberg;Halle, S.</t>
+  </si>
+  <si>
+    <t>2626-4234</t>
+  </si>
+  <si>
+    <t>914.3;943;930;050</t>
+  </si>
+  <si>
+    <t>2960166-6</t>
+  </si>
+  <si>
+    <t>Band 32-</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/jsmv/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2944368</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-862;DE-20;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-150;DE-573;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2944924-8</t>
+  </si>
+  <si>
+    <t>Das digitale Münzkabinett der Universität Halle</t>
+  </si>
+  <si>
+    <t>Archäologisches Museum der Martin-Luther-Universität Halle-Wittenberg</t>
+  </si>
+  <si>
+    <t>Halle (Saale)</t>
+  </si>
+  <si>
+    <t>https://numid.altertum.uni-halle.de/home?lang=de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102834</t>
+  </si>
+  <si>
+    <t>2945405-0</t>
+  </si>
+  <si>
+    <t>nl;b</t>
+  </si>
+  <si>
+    <t>Gregory of Nyssa Online</t>
+  </si>
+  <si>
+    <t>grc;eng</t>
+  </si>
+  <si>
+    <t>2214-8639</t>
+  </si>
+  <si>
+    <t>480;230</t>
+  </si>
+  <si>
+    <t>1;FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
+  </si>
+  <si>
+    <t>3111570-6</t>
+  </si>
+  <si>
+    <t>https://brill.com/view/package/gono;https://referenceworks.brillonline.com/cluster/Gregory%20of%20Nyssa%20Online;https://dh.brill.com/scholarlyeditions/library/urn:cts:greekLit:tlg2017/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103292</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>2736148-2</t>
+  </si>
+  <si>
+    <t>Journal of eastern mediterranean archaeology and heritage studies</t>
+  </si>
+  <si>
+    <t>Pennsylvania State Univ. Press</t>
+  </si>
+  <si>
+    <t>University Park, Pa.</t>
+  </si>
+  <si>
+    <t>2166-3548</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>1.2013 -</t>
+  </si>
+  <si>
+    <t>2946742-1</t>
+  </si>
+  <si>
+    <t>Bulletin</t>
+  </si>
+  <si>
+    <t>Australian Archaeological Institute at Athens</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Volume 1 (2003)-</t>
+  </si>
+  <si>
+    <t>https://aaia.sydney.edu.au/aaia-publications/;http://www.bibliothek.uni-regensburg.de/ezeit/?2946742</t>
+  </si>
+  <si>
+    <t>2948245-8</t>
+  </si>
+  <si>
+    <t>Heidelberg;Stuttgart</t>
+  </si>
+  <si>
+    <t>Beiheft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1]=64,2; [2]=65,2; [3]=66,2</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/nnu/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2929310</t>
+  </si>
+  <si>
+    <t>2951110-0</t>
+  </si>
+  <si>
+    <t>Etruscan and Italic studies</t>
+  </si>
+  <si>
+    <t>de Gruyter</t>
+  </si>
+  <si>
+    <t>Berlin;Boston</t>
+  </si>
+  <si>
+    <t>2566-9095</t>
+  </si>
+  <si>
+    <t>1292087-3</t>
+  </si>
+  <si>
+    <t>Volume 21, issue 1/2 (2018)-</t>
+  </si>
+  <si>
+    <t>DE-12;DE-109</t>
+  </si>
+  <si>
+    <t>2955222-9</t>
+  </si>
+  <si>
+    <t>https://www.archaeopress.com;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102761;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=104201</t>
+  </si>
+  <si>
+    <t>2960054-6</t>
+  </si>
+  <si>
+    <t>Deir el-Medina Thesaurus</t>
+  </si>
+  <si>
+    <t>Jean-Marie Guillon</t>
+  </si>
+  <si>
+    <t>[France?]</t>
+  </si>
+  <si>
+    <t>http://www.deirelmedinathesaurus.com/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103058</t>
+  </si>
+  <si>
+    <t>Jahresschrift für die Vorgeschichte der sächsisch-thüringischen Länder</t>
+  </si>
+  <si>
+    <t>Otto Hendel;Propylaeum</t>
+  </si>
+  <si>
+    <t>Halle;Heidelberg</t>
+  </si>
+  <si>
+    <t>2510-7135</t>
+  </si>
+  <si>
+    <t>1. Band (1902) - 31. Band (1939)</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/jsmv/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2960166</t>
+  </si>
+  <si>
+    <t>2960240-3</t>
+  </si>
+  <si>
+    <t>Athens University review of archaeology</t>
+  </si>
+  <si>
+    <t>National and Kapodistrian University of Athens, Faculty of History and Archaeology</t>
+  </si>
+  <si>
+    <t>eng;gre</t>
+  </si>
+  <si>
+    <t>FID-HIST-DE-12;FID-ALT-KA-DE-16</t>
+  </si>
+  <si>
+    <t>Volume 1 (May 2018)-</t>
+  </si>
+  <si>
+    <t>2964986-9</t>
+  </si>
+  <si>
+    <t>Aloys Hirt - Briefwechsel 1787-1837</t>
+  </si>
+  <si>
+    <t>FID-ALT-KA-DE-16;FID-KUNST-DE-16</t>
+  </si>
+  <si>
+    <t>https://dbis.uni-regensburg.de/frontdoor.php?titel_id=103080;https://aloys-hirt.bbaw.de</t>
+  </si>
+  <si>
+    <t>2971765-6</t>
+  </si>
+  <si>
+    <t>Funde und Ausgrabungen im Bezirk Trier</t>
+  </si>
+  <si>
+    <t>Rheinisches Landesmuseum Trier;Propylaeum</t>
+  </si>
+  <si>
+    <t>Trier;Heidelberg</t>
+  </si>
+  <si>
+    <t>2628-9032</t>
+  </si>
+  <si>
+    <t>[1.]1969 - [11.]1979; 12.1980 -</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/fuabt/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2971765</t>
+  </si>
+  <si>
+    <t>2972963-4</t>
+  </si>
+  <si>
+    <t>ProQuest ebook central</t>
+  </si>
+  <si>
+    <t>ProQuest LLC</t>
+  </si>
+  <si>
+    <t>Ann Arbor, Michigan</t>
+  </si>
+  <si>
+    <t>FID-ALT-DE-12;FID-ALT-AY-DE-16;FID-ALT-KA-DE-16;FID-HIST-DE-12;FID-HIST-DE-210</t>
+  </si>
+  <si>
+    <t>https://about.proquest.com/en/products-services/ebooks-main;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102543</t>
+  </si>
+  <si>
+    <t>2973520-8</t>
+  </si>
+  <si>
+    <t>JSTOR</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>E-Books in classical studies</t>
+  </si>
+  <si>
+    <t>http://www.jstor.org/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103133</t>
+  </si>
+  <si>
+    <t>2974333-3</t>
+  </si>
+  <si>
+    <t>Das virtuelle Münzkabinett des Herzog Anton Ulrich-Museums</t>
+  </si>
+  <si>
+    <t>Herzog Anton Ulrich-Museum, Kunstmuseum des Landes Niedersachsen</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>https://www.virtuelles-muenzkabinett.de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=104899</t>
+  </si>
+  <si>
+    <t>2987611-4</t>
+  </si>
+  <si>
+    <t>Materiali e strutture</t>
+  </si>
+  <si>
+    <t>Dipartimento di Storia, Disegno e Restauro dell'Architettura, Sapienza, Università di Roma</t>
+  </si>
+  <si>
+    <t>2385-2763</t>
+  </si>
+  <si>
+    <t>Nuova serie, 8, numero 15 (2019)-</t>
+  </si>
+  <si>
+    <t>http://www.nardecchiadigital.it/index.php?journal=MaterStrutt-QR&amp;page=issue&amp;op=archive;http://www.bibliothek.uni-regensburg.de/ezeit/?2987611</t>
+  </si>
+  <si>
+    <t>2775993-3</t>
+  </si>
+  <si>
+    <t>Deltion archaiologikon</t>
+  </si>
+  <si>
+    <t>4.1888(1889) - 8.1892</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.11588/diglit.22613;http://www.bibliothek.uni-regensburg.de/ezeit/?2775993</t>
+  </si>
+  <si>
+    <t>2998359-9</t>
+  </si>
+  <si>
+    <t>Acta praehistorica et archaeologica</t>
+  </si>
+  <si>
+    <t>Propylaeum;Leidorf</t>
+  </si>
+  <si>
+    <t>Heidelberg;Rahden</t>
+  </si>
+  <si>
+    <t>2699-0547</t>
+  </si>
+  <si>
+    <t>1.1970-</t>
+  </si>
+  <si>
+    <t>https://journals.ub.uni-heidelberg.de/index.php/apa/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2998359</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-18;DE-210;DE-M352;DE-19;DE-20;DE-26;DE-27;DE-28;DE-1102;DE-92;DE-29;DE-946;DE-46;DE-84;DE-89;DE-90;DE-95;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-521;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-960-1;DE-960-3;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>2999901-7</t>
+  </si>
+  <si>
+    <t>Digitales Archiv des Erzbistums München und Freising</t>
+  </si>
+  <si>
+    <t>Erzdiözese München und Freising</t>
+  </si>
+  <si>
+    <t>https://www.erzbistum-muenchen.de/archiv-und-bibliothek/digitales-archiv;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103509</t>
+  </si>
+  <si>
+    <t>3006211-1</t>
+  </si>
+  <si>
+    <t>Bibliothēkē tēs en Athēnais Archaiologikēs Hetaireias</t>
+  </si>
+  <si>
+    <t>Ē en Athēnais Archaiologikē Etaireia</t>
+  </si>
+  <si>
+    <t>1 (1851)-</t>
+  </si>
+  <si>
+    <t>https://www.archetai.gr/index.php?p=content&amp;tion=1&amp;id=19&amp;lang=el;https://www.archetai.gr/index.php?p=content&amp;section=8&amp;id=67&amp;lang=;http://www.bibliothek.uni-regensburg.de/ezeit/?3006211</t>
+  </si>
+  <si>
+    <t>KW;KW</t>
+  </si>
+  <si>
+    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-Mh39;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
+  </si>
+  <si>
+    <t>3006235-4</t>
+  </si>
+  <si>
+    <t>To ergon tēs Archaiologikēs Hetaireias en Athēnais</t>
+  </si>
+  <si>
+    <t>Hetaireia</t>
+  </si>
+  <si>
+    <t>1954-</t>
+  </si>
+  <si>
+    <t>https://www.archetai.gr/index.php?p=content&amp;ion=1&amp;id=22&amp;lang=el;http://www.bibliothek.uni-regensburg.de/ezeit/?3006235</t>
+  </si>
+  <si>
+    <t>3006240-8</t>
+  </si>
+  <si>
+    <t>O mentōr</t>
+  </si>
+  <si>
+    <t>3055379-9</t>
+  </si>
+  <si>
+    <t>Vol. 5, issue 19 (1992)-</t>
+  </si>
+  <si>
+    <t>https://www.archetai.gr/index.php?p=content§ion=1&amp;id=23&amp;lang=el;http://www.bibliothek.uni-regensburg.de/ezeit/?3006240</t>
+  </si>
+  <si>
+    <t>3022125-0</t>
+  </si>
+  <si>
+    <t>CoinHoards</t>
+  </si>
+  <si>
+    <t>American Numismatic Society</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>http://coinhoards.org;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103976</t>
+  </si>
+  <si>
+    <t>3023121-8</t>
+  </si>
+  <si>
+    <t>WissKICommunity</t>
+  </si>
+  <si>
+    <t>Universitätsbibliothek Heidelberg</t>
+  </si>
+  <si>
+    <t>https://sempub.ub.uni-heidelberg.de/wisski_projekte/de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103992</t>
+  </si>
+  <si>
+    <t>3026089-9</t>
+  </si>
+  <si>
+    <t>eManual Alte Geschichte</t>
+  </si>
+  <si>
+    <t>Universität Hamburg, Fachbereich Geschichte, Arbeitsbereich Alte Geschichte</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>https://emanualaltegeschichte.blogs.uni-hamburg.de</t>
+  </si>
+  <si>
+    <t>3028559-8</t>
+  </si>
+  <si>
+    <t>Ricerche ellenistiche</t>
+  </si>
+  <si>
+    <t>2704-8292</t>
+  </si>
+  <si>
+    <t>1 (2020)-</t>
+  </si>
+  <si>
+    <t>3028894-0</t>
+  </si>
+  <si>
+    <t>Schaufenster FID-Lizenzen</t>
+  </si>
+  <si>
+    <t>ger;mul</t>
+  </si>
+  <si>
+    <t>https://biblio.ub.uni-heidelberg.de/propylaeumfidlizenzen/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=104083</t>
+  </si>
+  <si>
+    <t>2813079-0</t>
+  </si>
+  <si>
+    <t>Vjesnik za arheologiju i historiju dalmatinsku</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>1849-5672</t>
+  </si>
+  <si>
+    <t>2217664-0</t>
+  </si>
+  <si>
+    <t>107.2014 -</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>DE-12;DE-19;DE-715;DE-F36</t>
-  </si>
-  <si>
-    <t>212056-2</t>
-  </si>
-  <si>
-    <t>Belleten</t>
-  </si>
-  <si>
-    <t>Türk Tarih Kurumu Basimevi</t>
-  </si>
-  <si>
-    <t>Ankara</t>
-  </si>
-  <si>
-    <t>tur</t>
-  </si>
-  <si>
-    <t>0041-4255</t>
-  </si>
-  <si>
-    <t>910;940;890</t>
-  </si>
-  <si>
-    <t>FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.1937 -   ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-3-1;DE-12;DE-18;DE-19;DE-21;DE-212;DE-473;DE-F36</t>
-  </si>
-  <si>
-    <t>721143-0</t>
-  </si>
-  <si>
-    <t>Pallas</t>
-  </si>
-  <si>
-    <t>Presses Universitaires du Mirail, PUM</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>0031-0387</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>1.1953 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-352;DE-355;DE-385;DE-F36</t>
-  </si>
-  <si>
-    <t>2132372-0</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>Journal of intercultural and interdisciplinary archaeology</t>
-  </si>
-  <si>
-    <t>Propylaeum</t>
-  </si>
-  <si>
-    <t>Heidelberg;Ottaviano</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>1824-1670</t>
-  </si>
-  <si>
-    <t>Nr. 1.2003 [?] ; No 1 (2014)-no. 3 (2019) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>http://journals.ub.uni-heidelberg.de/index.php/jiia;http://www.bibliothek.uni-regensburg.de/ezeit/?2132372</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>2176785-3</t>
-  </si>
-  <si>
-    <t>Revue annuelle</t>
-  </si>
-  <si>
-    <t>Aouras</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>1766-8336</t>
-  </si>
-  <si>
-    <t>6,12;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>No 1(décembre 2003)-</t>
-  </si>
-  <si>
-    <t>1480603-4</t>
-  </si>
-  <si>
-    <t>Göttinger Forum für Altertumswissenschaft</t>
-  </si>
-  <si>
-    <t>Propylaeum;Edition Ruprecht</t>
-  </si>
-  <si>
-    <t>Heidelberg;Göttingen</t>
-  </si>
-  <si>
-    <t>1437-9074</t>
-  </si>
-  <si>
-    <t>930;870</t>
-  </si>
-  <si>
-    <t>1476096-4</t>
-  </si>
-  <si>
-    <t>1.1998 -</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/gfa/issue/archive;http://www.bibliothek.uni-regensburg.de/ezeit/?1480603</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>2570231-2</t>
-  </si>
-  <si>
-    <t>Archeomatica</t>
-  </si>
-  <si>
-    <t>A&amp;C 2000</t>
-  </si>
-  <si>
-    <t>2037-2485</t>
-  </si>
-  <si>
-    <t>[1.]2009/10,0-1; 1.2009/10,2-4; 2.2011 -</t>
-  </si>
-  <si>
-    <t>2266174-8</t>
-  </si>
-  <si>
-    <t>Notiziario della Soprintendenza per i Beni Archeologici della Toscana</t>
-  </si>
-  <si>
-    <t>All'Insegna del Giglio</t>
-  </si>
-  <si>
-    <t>Borgo S.Lorenzo</t>
-  </si>
-  <si>
-    <t>2035-5297</t>
-  </si>
-  <si>
-    <t>6,11;6,14;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.2005(2006) -</t>
-  </si>
-  <si>
-    <t>2581235-X</t>
-  </si>
-  <si>
-    <t>ld;dm;la;b</t>
-  </si>
-  <si>
-    <t>Archäologie und Kunst</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Breslau</t>
-  </si>
-  <si>
-    <t>2195-9382</t>
-  </si>
-  <si>
-    <t>930;700</t>
-  </si>
-  <si>
-    <t>6,14;9,10;FID-ALT-KA-DE-16;FID-KUNST-DE-16</t>
-  </si>
-  <si>
-    <t>1.1828,1; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>http://archaeologie-und-kunst.uni-hd.de;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-54707;http://opacplus.bsb-muenchen.de/title/718301-X;http://www.bibliothek.uni-regensburg.de/ezeit/?2581235</t>
-  </si>
-  <si>
-    <t>LF;LF;LF</t>
-  </si>
-  <si>
-    <t>2587573-5</t>
-  </si>
-  <si>
-    <t>ld;dm;d</t>
-  </si>
-  <si>
-    <t>Hallisches Winckelmannsprogramm</t>
-  </si>
-  <si>
-    <t>Halle</t>
-  </si>
-  <si>
-    <t>1.1876 - 28.1931</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.5985;http://www.bibliothek.uni-regensburg.de/ezeit/?2587573</t>
-  </si>
-  <si>
-    <t>2592124-1</t>
-  </si>
-  <si>
-    <t>Astigi vetus</t>
-  </si>
-  <si>
-    <t>Fundación Museo Historico Municipal de Écija</t>
-  </si>
-  <si>
-    <t>Écija</t>
-  </si>
-  <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>1578-2573</t>
-  </si>
-  <si>
-    <t>Nr. 1.2001; 2.2006 -</t>
-  </si>
-  <si>
-    <t>2380570-5</t>
-  </si>
-  <si>
-    <t>Facta</t>
-  </si>
-  <si>
-    <t>Serra</t>
-  </si>
-  <si>
-    <t>Pisa;Roma</t>
-  </si>
-  <si>
-    <t>eng;fre;ita</t>
-  </si>
-  <si>
-    <t>1971-9051</t>
-  </si>
-  <si>
-    <t>930;670</t>
-  </si>
-  <si>
-    <t>6,11;6,12;6,14;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1.2007(2008) -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-12</t>
-  </si>
-  <si>
-    <t>2622445-8</t>
-  </si>
-  <si>
-    <t>ld;dm;b</t>
-  </si>
-  <si>
-    <t>Limesblatt</t>
-  </si>
-  <si>
-    <t>Trier</t>
-  </si>
-  <si>
-    <t>2196-2081</t>
-  </si>
-  <si>
-    <t>[1].1892/93=Nr.1-5; 2.1893/94 - 7.1898/1902 = Nr. 6-34; Nr. 35.1903</t>
-  </si>
-  <si>
-    <t>http://limesblatt.uni-hd.de;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-89287;http://www.bibliothek.uni-regensburg.de/ezeit/?2622445</t>
-  </si>
-  <si>
-    <t>LF;LF</t>
-  </si>
-  <si>
-    <t>2624134-1</t>
-  </si>
-  <si>
-    <t>Hellenika</t>
-  </si>
-  <si>
-    <t>Schwetschke</t>
-  </si>
-  <si>
-    <t>2196-2022</t>
-  </si>
-  <si>
-    <t>1.1846[?]</t>
-  </si>
-  <si>
-    <t>http://hellenika.uni-hd.de;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-90019;http://www.bibliothek.uni-regensburg.de/ezeit/?2624134</t>
-  </si>
-  <si>
-    <t>2624142-0</t>
-  </si>
-  <si>
-    <t>Bullettino archeologico napoletano</t>
-  </si>
-  <si>
-    <t>Cataneo</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>2196-1883</t>
-  </si>
-  <si>
-    <t>2624140-7</t>
-  </si>
-  <si>
-    <t>1.1842/43 - 6.1847/48; N.S. 1.1852/53 - 8.1860(1863)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.9533;http://www.bibliothek.uni-regensburg.de/ezeit/?2624142;http://opacplus.bsb-muenchen.de/title/401126-0;http://194.183.10.76/PeriodicoScheda.aspx?id_testata=16&amp;Start=0</t>
-  </si>
-  <si>
-    <t>3058145-X</t>
-  </si>
-  <si>
-    <t>Telestes</t>
-  </si>
-  <si>
-    <t>Istituti editoriali e poligrafici internazionali</t>
-  </si>
-  <si>
-    <t>ita;eng</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>FID-MUS-DE-12;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1 (2021)-</t>
-  </si>
-  <si>
-    <t>DE-12;DE-20</t>
-  </si>
-  <si>
-    <t>3058487-5</t>
-  </si>
-  <si>
-    <t>Annual Review ...</t>
-  </si>
-  <si>
-    <t>Propylaeum;Chartered Institute for Archaeologists</t>
-  </si>
-  <si>
-    <t>Heidelberg;Reading</t>
-  </si>
-  <si>
-    <t>2754-0456</t>
-  </si>
-  <si>
-    <t>2018/2019 [?]-</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/cifaanrev/index;http://www.bibliothek.uni-regensburg.de/ezeit/?3058487</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>3058504-1</t>
-  </si>
-  <si>
-    <t>The Archaeologist</t>
-  </si>
-  <si>
-    <t>2754-0448</t>
-  </si>
-  <si>
-    <t>Issue 106 (Winter 2019) [?]-</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/cifatamag/index;http://www.bibliothek.uni-regensburg.de/ezeit/?3058504</t>
-  </si>
-  <si>
-    <t>3058508-9</t>
-  </si>
-  <si>
-    <t>Yearbook and directory</t>
-  </si>
-  <si>
-    <t>2754-0464</t>
-  </si>
-  <si>
-    <t>2019 [?]-</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/cifayearb/index;http://www.bibliothek.uni-regensburg.de/ezeit/?3058508</t>
-  </si>
-  <si>
-    <t>3058514-4</t>
-  </si>
-  <si>
-    <t>Yakka</t>
-  </si>
-  <si>
-    <t>Museo Arqueológico Municipal Cayetano de Mergelina (MaYe);edit.um, Ediciones de la Universidad de Murcia;Servicio Municipal de Publicaciones</t>
-  </si>
-  <si>
-    <t>Yecla;Murcia</t>
-  </si>
-  <si>
-    <t>1130-3581</t>
-  </si>
-  <si>
-    <t>Año 1 (1989)- = No. 1-</t>
-  </si>
-  <si>
-    <t>2628639-7</t>
-  </si>
-  <si>
-    <t>Archaiologikē ephēmeris</t>
-  </si>
-  <si>
-    <t>En Athēnais</t>
-  </si>
-  <si>
-    <t>grc</t>
-  </si>
-  <si>
-    <t>2196-2189</t>
-  </si>
-  <si>
-    <t>2628658-0</t>
-  </si>
-  <si>
-    <t>2.Per. 1.1862(1863) - 17.1874; 1910 - 1925/26; 66/67.1927/28 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2628639;https://www.archetai.gr/index.php?p=content&amp;ion=1&amp;id=21&amp;lang=el;http://aephem.uni-hd.de;http://opacplus.bsb-muenchen.de/title/216375-5</t>
-  </si>
-  <si>
-    <t>2628642-7</t>
-  </si>
-  <si>
-    <t>Archäologisch-epigraphische Mitteilungen aus Österreich-Ungarn</t>
-  </si>
-  <si>
-    <t>Hölder</t>
-  </si>
-  <si>
-    <t>Wien</t>
-  </si>
-  <si>
-    <t>2196-2111</t>
-  </si>
-  <si>
-    <t>730;920;930</t>
-  </si>
-  <si>
-    <t>506173-8</t>
-  </si>
-  <si>
-    <t>1.1877 - 20.1897</t>
-  </si>
-  <si>
-    <t>http://opacplus.bsb-muenchen.de/title/506165-9;http://archepigrmoeu.uni-hd.de;http://www.bibliothek.uni-regensburg.de/ezeit/?2628642;http://www.digizeitschriften.de/dms/toc/?PID=urn:nbn:de:bsz:16-diglit-93908</t>
-  </si>
-  <si>
-    <t>Ephēmeris archaiologikē</t>
-  </si>
-  <si>
-    <t>2196-2197;2196-2170</t>
-  </si>
-  <si>
-    <t>1837 - 1860; 1883 - 1909</t>
-  </si>
-  <si>
-    <t>http://aephem.uni-hd.de;https://www.archetai.gr/index.php?p=content&amp;section=1&amp;id=21&amp;lang=el;http://opacplus.bsb-muenchen.de/title/216376-7;http://www.bibliothek.uni-regensburg.de/ezeit/?2628658</t>
-  </si>
-  <si>
-    <t>2628666-X</t>
-  </si>
-  <si>
-    <t>la;b</t>
-  </si>
-  <si>
-    <t>Praktika tēs en Athēnais Archaiologikēs Hetaireias</t>
-  </si>
-  <si>
-    <t>Ē @en Athēnais Archaiologikē Etaireia</t>
-  </si>
-  <si>
-    <t>Athēnai</t>
-  </si>
-  <si>
-    <t>gre;fre</t>
-  </si>
-  <si>
-    <t>Tomos 1 (1837)-</t>
-  </si>
-  <si>
-    <t>https://www.archetai.gr/index.php?p=content&amp;ion=1&amp;id=20&amp;lang=el;https://www.ub.uni-heidelberg.de/fachinfo/archaeologie/zeitschriften/prakt.html;https://opacplus.bsb-muenchen.de/title/BV002576179;http://www.bibliothek.uni-regensburg.de/ezeit/?2628666</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-862;DE-863;DE-20;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523</t>
-  </si>
-  <si>
-    <t>2840513-4</t>
-  </si>
-  <si>
-    <t>Revue internationale d'histoire militaire ancienne</t>
-  </si>
-  <si>
-    <t>Klincksieck</t>
-  </si>
-  <si>
-    <t>[Paris]</t>
-  </si>
-  <si>
-    <t>fre;eng</t>
-  </si>
-  <si>
-    <t>2491-6943</t>
-  </si>
-  <si>
-    <t>6,12;6,14;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>2167820-0</t>
-  </si>
-  <si>
-    <t>No 1 (2015)-</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-4;DE-12</t>
-  </si>
-  <si>
-    <t>2841985-6</t>
-  </si>
-  <si>
-    <t>The Brill Dictionary of Ancient Greek</t>
-  </si>
-  <si>
-    <t>Brill</t>
-  </si>
-  <si>
-    <t>Leiden</t>
-  </si>
-  <si>
-    <t>930;870;880</t>
-  </si>
-  <si>
-    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2015 -</t>
-  </si>
-  <si>
-    <t>http://dictionaries.brillonline.com/montanari;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=100901</t>
-  </si>
-  <si>
-    <t>3074099-X</t>
-  </si>
-  <si>
-    <t>Das Rollpodest</t>
-  </si>
-  <si>
-    <t>Institut für Klassische Archäologie der Universität Tübingen</t>
-  </si>
-  <si>
-    <t>Tübingen</t>
-  </si>
-  <si>
-    <t>https://rollpodest.hypotheses.org</t>
-  </si>
-  <si>
-    <t>2859869-6</t>
-  </si>
-  <si>
-    <t>Notiziario delle attività di tutela</t>
-  </si>
-  <si>
-    <t>Scorpione Editrice</t>
-  </si>
-  <si>
-    <t>2439490-7</t>
-  </si>
-  <si>
-    <t>Nuova serie, 2 (gennaio 2006/dicembre 2010)-</t>
-  </si>
-  <si>
-    <t>DE-355</t>
-  </si>
-  <si>
-    <t>2869725-X</t>
-  </si>
-  <si>
-    <t>rb;b</t>
-  </si>
-  <si>
-    <t>DAI Athenea</t>
-  </si>
-  <si>
-    <t>Deutsches Archäologisches Institut, Abteilung Athen</t>
-  </si>
-  <si>
-    <t>Athen</t>
-  </si>
-  <si>
-    <t>gre;ger</t>
-  </si>
-  <si>
-    <t>FID-ALT-DE-12;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>2014-</t>
-  </si>
-  <si>
-    <t>3092179-X</t>
-  </si>
-  <si>
-    <t>Asia minor</t>
-  </si>
-  <si>
-    <t>Istituti editoriali e poligrafici internazionali;Fabrizio Serra Editore</t>
-  </si>
-  <si>
-    <t>2785-0277</t>
-  </si>
-  <si>
-    <t>I.2021-</t>
-  </si>
-  <si>
-    <t>DE-12;DE-20;DE-355</t>
-  </si>
-  <si>
-    <t>2873158-X</t>
-  </si>
-  <si>
-    <t>Journal of Greek archaeology</t>
-  </si>
-  <si>
-    <t>Archaeopress Publishing</t>
-  </si>
-  <si>
-    <t>2059-4674</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>Volume 1 (2016)-</t>
-  </si>
-  <si>
-    <t>DE-385</t>
-  </si>
-  <si>
-    <t>2875038-X</t>
-  </si>
-  <si>
-    <t>Journal of ancient history and archaeology</t>
-  </si>
-  <si>
-    <t>Editura Mega</t>
-  </si>
-  <si>
-    <t>Cluj-Napoca</t>
-  </si>
-  <si>
-    <t>2360-266X</t>
-  </si>
-  <si>
-    <t>FID-ALT-KA-DE-16;FID-ALT-DE-12</t>
-  </si>
-  <si>
-    <t>No. 1, 1 (2014)-</t>
-  </si>
-  <si>
-    <t>http://www.jaha.org.ro/index.php/JAHA/issue/archive;https://www.ceeol.com/search/journal-detail?id=2175;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.bibliothek.uni-regensburg.de/ezeit/?2875038</t>
-  </si>
-  <si>
-    <t>LF;KF;NL</t>
-  </si>
-  <si>
-    <t>DE-12;DE-M352;DE-210;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-90;DE-Mh39;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-521;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>3100563-9</t>
-  </si>
-  <si>
-    <t>RCRF Bibliography</t>
-  </si>
-  <si>
-    <t>Römisch-Germanisches Zentralmuseum</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>https://www1.rgzm.de/anadecom/BibliographySearchInput.cfm</t>
-  </si>
-  <si>
-    <t>2880222-6</t>
-  </si>
-  <si>
-    <t>Bulletin de l'Association Internationale pour l'Etude de la Mosai͏̈que Antique (AIEMA)</t>
-  </si>
-  <si>
-    <t>AIEMA</t>
-  </si>
-  <si>
-    <t>910;940;930</t>
-  </si>
-  <si>
-    <t>19.2003-</t>
-  </si>
-  <si>
-    <t>http://aiema75rs.wixsite.com/aiema/bulletins;http://www.bibliothek.uni-regensburg.de/ezeit/?2880222</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-29;DE-1102;DE-946;DE-90;DE-Mh39;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-703;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>2882730-2</t>
-  </si>
-  <si>
-    <t>Mastia</t>
-  </si>
-  <si>
-    <t>Ayuntamiento de Cartagena</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>2. época, número 1 (2002)-</t>
-  </si>
-  <si>
-    <t>https://dialnet.unirioja.es/servlet/revista?codigo=11316;http://www.bibliothek.uni-regensburg.de/ezeit/?2882730</t>
-  </si>
-  <si>
-    <t>2883563-3</t>
-  </si>
-  <si>
-    <t>Prähistorische Blätter</t>
-  </si>
-  <si>
-    <t>Verlag der Redaktion der "Prähistorischen Blätter"</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>2510-5752</t>
-  </si>
-  <si>
-    <t>1.1889 - 19.1907</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.32433;http://www.bibliothek.uni-regensburg.de/ezeit/?2883563</t>
-  </si>
-  <si>
-    <t>2883946-8</t>
-  </si>
-  <si>
-    <t>Journal of Hellenistic pottery and material culture</t>
-  </si>
-  <si>
-    <t>Archaeopress</t>
-  </si>
-  <si>
-    <t>2399-1844</t>
-  </si>
-  <si>
-    <t>1 (2016)-</t>
-  </si>
-  <si>
-    <t>2884527-4</t>
-  </si>
-  <si>
-    <t>Atti e memorie della Società Magna Grecia</t>
-  </si>
-  <si>
-    <t>Fabrizio Serra editore</t>
-  </si>
-  <si>
-    <t>000;930;870</t>
-  </si>
-  <si>
-    <t>4. serie, 6 (2014/2015)-</t>
-  </si>
-  <si>
-    <t>https://www.libraweb.net/articoli.php?chiave=201512901&amp;rivista=129;http://www.bibliothek.uni-regensburg.de/ezeit/?2884527</t>
-  </si>
-  <si>
-    <t>DE-7;DE-12</t>
-  </si>
-  <si>
-    <t>2887245-9</t>
-  </si>
-  <si>
-    <t>Athens University Review Of Archaeology</t>
-  </si>
-  <si>
-    <t>National and Kapodistrian University of Athens, Department of Archaeology and History</t>
-  </si>
-  <si>
-    <t>Athens</t>
-  </si>
-  <si>
-    <t>eng;grc</t>
-  </si>
-  <si>
-    <t>2623-3428</t>
-  </si>
-  <si>
-    <t>Vol. 1 (2018)-</t>
-  </si>
-  <si>
-    <t>http://epub.lib.uoa.gr/index.php/aura/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2887245</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-824;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>2890893-4</t>
-  </si>
-  <si>
-    <t>Heritage Turkey</t>
-  </si>
-  <si>
-    <t>British Institute at Ankara</t>
-  </si>
-  <si>
-    <t>2057-889X</t>
-  </si>
-  <si>
-    <t>Volume 1 (2011)-</t>
-  </si>
-  <si>
-    <t>https://biaa.ac.uk/publication/heritage-turkey/;http://www.bibliothek.uni-regensburg.de/ezeit/?2890893</t>
-  </si>
-  <si>
-    <t>3112402-1</t>
-  </si>
-  <si>
-    <t>fp;d</t>
-  </si>
-  <si>
-    <t>Bodenaltertümer Westfalens</t>
-  </si>
-  <si>
-    <t>Propylaeum;von @Zabern</t>
-  </si>
-  <si>
-    <t>Heidelberg;Darmstadt</t>
-  </si>
-  <si>
-    <t>Band 1 -</t>
-  </si>
-  <si>
-    <t>https://books.ub.uni-heidelberg.de/propylaeum/series/info/baw</t>
-  </si>
-  <si>
-    <t>3119648-2</t>
-  </si>
-  <si>
-    <t>The journal of ancient architecture</t>
-  </si>
-  <si>
-    <t>2785-3861</t>
-  </si>
-  <si>
-    <t>1 (2022)-</t>
-  </si>
-  <si>
-    <t>DE-12;DE-15;DE-19</t>
-  </si>
-  <si>
-    <t>3121049-1</t>
-  </si>
-  <si>
-    <t>Pylon</t>
-  </si>
-  <si>
-    <t>Propylaeum;Heidelberg University, Institute for Papyrology</t>
-  </si>
-  <si>
-    <t>Heidelberg</t>
-  </si>
-  <si>
-    <t>2751-4722</t>
-  </si>
-  <si>
-    <t>Vol. 1 (2022)-</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/pylon/;http://www.bibliothek.uni-regensburg.de/ezeit/?3121049</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-18;DE-19;DE-862;DE-863;DE-20;DE-26;DE-27;DE-28;DE-1102;DE-29;DE-946;DE-84;DE-89;DE-90;DE-95;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-960-1;DE-960-3;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>3121846-5</t>
-  </si>
-  <si>
-    <t>Archäologie weltweit</t>
-  </si>
-  <si>
-    <t>Deutsches Archäologisches Institut, Presse- und Öffentlichkeitsarbeit</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Sonderausgabe</t>
-  </si>
-  <si>
-    <t>6. Jahrgang (2021) [?]-</t>
-  </si>
-  <si>
-    <t>2899824-8</t>
-  </si>
-  <si>
-    <t>Diadora</t>
-  </si>
-  <si>
-    <t>Archaeological museum</t>
-  </si>
-  <si>
-    <t>Zadar</t>
-  </si>
-  <si>
-    <t>hrv;eng</t>
-  </si>
-  <si>
-    <t>2459-7694</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>Vol. 28 (2015)-</t>
-  </si>
-  <si>
-    <t>https://hrcak.srce.hr/diadora;http://www.bibliothek.uni-regensburg.de/ezeit/?2899824</t>
-  </si>
-  <si>
-    <t>2693523-5</t>
-  </si>
-  <si>
-    <t>Food and drink in Archaeology</t>
-  </si>
-  <si>
-    <t>Prospect Books</t>
-  </si>
-  <si>
-    <t>Blackawton</t>
-  </si>
-  <si>
-    <t>2902295-2</t>
-  </si>
-  <si>
-    <t>Westdeutsche Zeitschrift für Geschichte und Kunst</t>
-  </si>
-  <si>
-    <t>Lintz</t>
-  </si>
-  <si>
-    <t>2702-6132</t>
-  </si>
-  <si>
-    <t>FID-KUNST-DE-16;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>Korrespondenzblatt der "Westdeutschen Zeitschrift für Geschichte und Kunst"</t>
-  </si>
-  <si>
-    <t>1.1882 - 26.1907</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.36103;http://www.bibliothek.uni-regensburg.de/ezeit/?2902295</t>
-  </si>
-  <si>
-    <t>3128936-8</t>
-  </si>
-  <si>
-    <t>Sympozjum Egejskie</t>
-  </si>
-  <si>
-    <t>Institute of Archaeology, University of Warsaw;Brepols</t>
-  </si>
-  <si>
-    <t>Warszawa;Turnhout</t>
-  </si>
-  <si>
-    <t>Vol. 1 (2017)-</t>
-  </si>
-  <si>
-    <t>2910796-9</t>
-  </si>
-  <si>
-    <t>Preservation</t>
-  </si>
-  <si>
-    <t>National Trust for Historic Preservation</t>
-  </si>
-  <si>
-    <t>Washington, DC</t>
-  </si>
-  <si>
-    <t>Spring (2015)-</t>
-  </si>
-  <si>
-    <t>https://savingplaces.org/preservation-magazine/issues/;http://www.bibliothek.uni-regensburg.de/ezeit/?2910796</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>DE-12;DE-M352;DE-19;DE-20;DE-26;DE-29;DE-92;DE-1102;DE-946;DE-90;DE-91;DE-861;DE-355;DE-898;DE-155;DE-384;DE-Aug4;DE-37;DE-473;DE-521;DE-703;DE-1051;DE-739;DE-824;DE-573;DE-150;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>3134881-6</t>
-  </si>
-  <si>
-    <t>Pompeii</t>
-  </si>
-  <si>
-    <t>[Parco archeologico di Pompei]</t>
-  </si>
-  <si>
-    <t>[Pompei (Napoli)]</t>
-  </si>
-  <si>
-    <t>ita;mul</t>
-  </si>
-  <si>
-    <t>http://open.pompeiisites.org/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=105218</t>
-  </si>
-  <si>
-    <t>3136337-4</t>
-  </si>
-  <si>
-    <t>EDCS-Journal</t>
-  </si>
-  <si>
-    <t>EDCS-Projekt</t>
-  </si>
-  <si>
-    <t>Eichstätt</t>
-  </si>
-  <si>
-    <t>ger;spa;ita;fre;eng</t>
-  </si>
-  <si>
-    <t>FID-ALT-KA-DE-16;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>1 (07/2020)-</t>
-  </si>
-  <si>
-    <t>https://db.edcs.eu/epigr/hinweise/edcs-journal.php?s_language=de;http://www.bibliothek.uni-regensburg.de/ezeit/?3136337</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>DE-12;DE-210;DE-M352;DE-19;DE-20;DE-26;DE-1102;DE-92;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-521;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>3140964-7</t>
-  </si>
-  <si>
-    <t>Arbeitshefte des Bayerischen Landesamtes für Denkmalpflege</t>
-  </si>
-  <si>
-    <t>Landesamt;Lipp</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>1.1978-118 ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>3140986-6</t>
-  </si>
-  <si>
-    <t>Materialhefte zur bayerischen Vorgeschichte</t>
-  </si>
-  <si>
-    <t>Lassleben</t>
-  </si>
-  <si>
-    <t>Kallmünz/Opf.</t>
-  </si>
-  <si>
-    <t>3140995-7</t>
-  </si>
-  <si>
-    <t>1.1952 - 29.1974</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.63230</t>
-  </si>
-  <si>
-    <t>Lassleben;Verl. Grafische Werkstätte Graf</t>
-  </si>
-  <si>
-    <t>Kallmünz, Opf.;Fürth, Bay.</t>
-  </si>
-  <si>
-    <t>Fundinventare und Ausgrabungsbefunde</t>
-  </si>
-  <si>
-    <t>30.1976 - 94.2010</t>
-  </si>
-  <si>
-    <t>3140997-0</t>
-  </si>
-  <si>
-    <t>700;930</t>
-  </si>
-  <si>
-    <t>Inventare der Geländedenkmäler</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2.1983; 3.1975 - 4.1978; 6.1979; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>3141000-5</t>
-  </si>
-  <si>
-    <t>Das Archäologische Jahr in Bayern</t>
-  </si>
-  <si>
-    <t>Theiss;Wissenschaftliche Buchgesellschaft;Theiss</t>
-  </si>
-  <si>
-    <t>Darmstadt;Stuttgart</t>
-  </si>
-  <si>
-    <t>1980(1981) -</t>
-  </si>
-  <si>
-    <t>3141056-X</t>
-  </si>
-  <si>
-    <t>Jahresbericht der bayerischen Bodendenkmalpflege</t>
-  </si>
-  <si>
-    <t>Habelt</t>
-  </si>
-  <si>
-    <t>Bonn</t>
-  </si>
-  <si>
-    <t>[1.]1960 - [3.]1962; 4.1963 - 21.1980</t>
-  </si>
-  <si>
-    <t>3141059-5</t>
-  </si>
-  <si>
-    <t>Bericht der bayerischen Bodendenkmalpflege</t>
-  </si>
-  <si>
-    <t>Selbstverl. d. Bayerischen Landesamtes für Denkmalpflege;Habelt</t>
-  </si>
-  <si>
-    <t>München;Bonn</t>
-  </si>
-  <si>
-    <t>930;914.3;943</t>
-  </si>
-  <si>
-    <t>22/23.1981/82(1986) -</t>
-  </si>
-  <si>
-    <t>3144256-0</t>
-  </si>
-  <si>
-    <t>Exodos Mesolongiu ar. 5</t>
-  </si>
-  <si>
-    <t>Ekdoseis Exodos</t>
-  </si>
-  <si>
-    <t>Athēna</t>
-  </si>
-  <si>
-    <t>gre</t>
-  </si>
-  <si>
-    <t>2654-1114</t>
-  </si>
-  <si>
-    <t>4o teuchos (2022/2023) [?]-</t>
-  </si>
-  <si>
-    <t>2922566-8</t>
-  </si>
-  <si>
-    <t>Studia archeologiczne</t>
-  </si>
-  <si>
-    <t>Uniw.</t>
-  </si>
-  <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>pol</t>
-  </si>
-  <si>
-    <t>2922571-1</t>
-  </si>
-  <si>
-    <t>Tom 1 (1981)-tom 4 (1985)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.41313;http://www.bibliothek.uni-regensburg.de/ezeit/?2922566</t>
-  </si>
-  <si>
-    <t>Studia i materiały archeologiczne</t>
-  </si>
-  <si>
-    <t>5.1987 - 9.1992; 10.2000 - 14.2014</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.41314;http://www.bibliothek.uni-regensburg.de/ezeit/?2922571</t>
-  </si>
-  <si>
-    <t>3147442-1</t>
-  </si>
-  <si>
-    <t>Antiquitatum Thesaurus</t>
-  </si>
-  <si>
-    <t>Berlin-Brandenburgische Akademie der Wissenschaften</t>
-  </si>
-  <si>
-    <t>https://db.antiquitatum-thesaurus.eu/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=105398</t>
-  </si>
-  <si>
-    <t>2926916-7</t>
-  </si>
-  <si>
-    <t>Distant worlds journal</t>
-  </si>
-  <si>
-    <t>eng;ger</t>
-  </si>
-  <si>
-    <t>Special Issue</t>
-  </si>
-  <si>
-    <t>Vol. 1 (2016)-vol. 3 (2020) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/dwj/index</t>
-  </si>
-  <si>
-    <t>2929310-8</t>
-  </si>
-  <si>
-    <t>Nachrichten aus Niedersachsens Urgeschichte</t>
-  </si>
-  <si>
-    <t>Propylaeum;Theiss</t>
-  </si>
-  <si>
-    <t>2568-0161</t>
-  </si>
-  <si>
-    <t>914.3;943</t>
-  </si>
-  <si>
-    <t>2930698-X</t>
-  </si>
-  <si>
-    <t>1.1927(1928) - 16.1942; 17.1948 -</t>
-  </si>
-  <si>
-    <t>http://journals.ub.uni-heidelberg.de/index.php/nnu/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2929310</t>
-  </si>
-  <si>
-    <t>KW</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-18;DE-19;DE-862;DE-20;DE-863;DE-26;DE-27;DE-28;DE-1102;DE-29;DE-946;DE-84;DE-89;DE-90;DE-95;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-703;DE-705;DE-739;DE-150;DE-573;DE-824;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-1373;DE-960-1;DE-960-3;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>2930119-1</t>
-  </si>
-  <si>
-    <t>Tübinger Forschungen zur Archäologie und Kunstgeschichte</t>
-  </si>
-  <si>
-    <t>Gryphius-Verl.</t>
-  </si>
-  <si>
-    <t>Reutlingen</t>
-  </si>
-  <si>
-    <t>Band 7 (?)-</t>
-  </si>
-  <si>
-    <t>http://digi.ub.uni-heidelberg.de/diglit/tfak</t>
-  </si>
-  <si>
-    <t>2930126-9</t>
-  </si>
-  <si>
-    <t>Disertacii</t>
-  </si>
-  <si>
-    <t>Nacionalen Archeologičeski Institut s Muzej</t>
-  </si>
-  <si>
-    <t>Sofija</t>
-  </si>
-  <si>
-    <t>bul;eng</t>
-  </si>
-  <si>
-    <t>2603-3100</t>
-  </si>
-  <si>
-    <t>Tom 10-</t>
-  </si>
-  <si>
-    <t>http://series.naim.bg/index.php/Dissertations</t>
-  </si>
-  <si>
-    <t>ld;b</t>
-  </si>
-  <si>
-    <t>Nachrichtenblatt für Niedersachsens Vorgeschichte</t>
-  </si>
-  <si>
-    <t>Lax</t>
-  </si>
-  <si>
-    <t>Hildesheim</t>
-  </si>
-  <si>
-    <t>2510-6635</t>
-  </si>
-  <si>
-    <t>1.1920 - 3.1922; N.S. 1.1924 - 3.1926</t>
-  </si>
-  <si>
-    <t>http://journals.ub.uni-heidelberg.de/index.php/nnu/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2930698</t>
-  </si>
-  <si>
-    <t>2935900-4</t>
-  </si>
-  <si>
-    <t>Römisch-germanische Forschungen</t>
-  </si>
-  <si>
-    <t>Reichert Verlag</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>Band 1-</t>
-  </si>
-  <si>
-    <t>http://digi.ub.uni-heidelberg.de/diglit/rgf</t>
-  </si>
-  <si>
-    <t>2937007-3</t>
-  </si>
-  <si>
-    <t>ra;b</t>
-  </si>
-  <si>
-    <t>Spektrum der Wissenschaft</t>
-  </si>
-  <si>
-    <t>Spektrum der Wissenschaft Verlagsgesellschaft mbH</t>
-  </si>
-  <si>
-    <t>2625-7971</t>
-  </si>
-  <si>
-    <t>930;900;300;000</t>
-  </si>
-  <si>
-    <t>Spektrum spezial;Archäologie, Geschichte, Kultur</t>
-  </si>
-  <si>
-    <t>2937010-3</t>
-  </si>
-  <si>
-    <t>2690681-8</t>
-  </si>
-  <si>
-    <t>16, 3-18, 1</t>
-  </si>
-  <si>
-    <t>2625-798X</t>
-  </si>
-  <si>
-    <t>930;900;300</t>
-  </si>
-  <si>
-    <t>Spezial;Archäologie, Geschichte, Kultur</t>
-  </si>
-  <si>
-    <t>2985757-0</t>
-  </si>
-  <si>
-    <t>18, 2-19, 4</t>
-  </si>
-  <si>
-    <t>2937896-5</t>
-  </si>
-  <si>
-    <t>Lebendige Antike</t>
-  </si>
-  <si>
-    <t>Dr. Frank Hennecke</t>
-  </si>
-  <si>
-    <t>Ludwigshafen am Rhein</t>
-  </si>
-  <si>
-    <t>2625-9524</t>
-  </si>
-  <si>
-    <t>3103495-0</t>
-  </si>
-  <si>
-    <t>2015/2016/2017</t>
-  </si>
-  <si>
-    <t>2938748-6</t>
-  </si>
-  <si>
-    <t>Quaderni di archeologia del Piemonte</t>
-  </si>
-  <si>
-    <t>[Wechselnde Verlage];Ministero dei Beni e delle Attività Culturali e del Turismo</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>2533-2597</t>
-  </si>
-  <si>
-    <t>803446-1</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>2941036-8</t>
-  </si>
-  <si>
-    <t>Ars Asiatica</t>
-  </si>
-  <si>
-    <t>Bruxelles [u.a.]</t>
-  </si>
-  <si>
-    <t>1.1914 - 18.1935[?]</t>
-  </si>
-  <si>
-    <t>http://digi.ub.uni-heidelberg.de/diglit/ars_asiatica</t>
-  </si>
-  <si>
-    <t>2941285-7</t>
-  </si>
-  <si>
-    <t>Oxford Scholarship Online</t>
-  </si>
-  <si>
-    <t>Oxford University Press</t>
-  </si>
-  <si>
-    <t>FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
-    <t>Classical studies collection</t>
-  </si>
-  <si>
-    <t>https://global.oup.com/academic/?lang=en&amp;cc=de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102589</t>
-  </si>
-  <si>
-    <t>2941295-X</t>
-  </si>
-  <si>
-    <t>Florida scholarship online</t>
-  </si>
-  <si>
-    <t>Oxford$nOxford University Press</t>
-  </si>
-  <si>
-    <t>FID-ALT-AY-DE-16;FID-ALT-DE-12;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>Archaeology collection</t>
-  </si>
-  <si>
-    <t>http://florida.universitypressscholarship.com/browse?t=OSO:archaeology;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102545</t>
-  </si>
-  <si>
-    <t>2734041-7</t>
-  </si>
-  <si>
-    <t>Jahreshefte des Österreichischen Archäologischen Institutes in Wien</t>
-  </si>
-  <si>
-    <t>Hölzel;Hölder</t>
-  </si>
-  <si>
-    <t>2522-5669</t>
-  </si>
-  <si>
-    <t>1.1898-Band 26 (1930)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.19226;http://www.bibliothek.uni-regensburg.de/ezeit/?2734041</t>
-  </si>
-  <si>
-    <t>2943921-8</t>
-  </si>
-  <si>
-    <t>Propylaeum–eBOOKS</t>
-  </si>
-  <si>
-    <t>ger;eng</t>
-  </si>
-  <si>
-    <t>http://books.ub.uni-heidelberg.de/propylaeum</t>
-  </si>
-  <si>
-    <t>2944368-4</t>
-  </si>
-  <si>
-    <t>Propylaeum;Landesamt für Denkmalpflege und Archäologie Sachsen-Anhalt, Landesmuseum für Vorgeschichte</t>
-  </si>
-  <si>
-    <t>Heidelberg;Halle, S.</t>
-  </si>
-  <si>
-    <t>2626-4234</t>
-  </si>
-  <si>
-    <t>914.3;943;930;050</t>
-  </si>
-  <si>
-    <t>2960166-6</t>
-  </si>
-  <si>
-    <t>Band 32-</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/jsmv/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2944368</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-862;DE-20;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-150;DE-573;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>2944924-8</t>
-  </si>
-  <si>
-    <t>Das digitale Münzkabinett der Universität Halle</t>
-  </si>
-  <si>
-    <t>Archäologisches Museum der Martin-Luther-Universität Halle-Wittenberg</t>
-  </si>
-  <si>
-    <t>Halle (Saale)</t>
-  </si>
-  <si>
-    <t>https://numid.altertum.uni-halle.de/home?lang=de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102834</t>
-  </si>
-  <si>
-    <t>2945405-0</t>
-  </si>
-  <si>
-    <t>nl;b</t>
-  </si>
-  <si>
-    <t>Gregory of Nyssa Online</t>
-  </si>
-  <si>
-    <t>grc;eng</t>
-  </si>
-  <si>
-    <t>2214-8639</t>
-  </si>
-  <si>
-    <t>480;230</t>
-  </si>
-  <si>
-    <t>1;FID-ALT-DE-12;FID-ALT-KA-DE-16;FID-ALT-AY-DE-16</t>
-  </si>
-  <si>
-    <t>3111570-6</t>
-  </si>
-  <si>
-    <t>https://brill.com/view/package/gono;https://referenceworks.brillonline.com/cluster/Gregory%20of%20Nyssa%20Online;https://dh.brill.com/scholarlyeditions/library/urn:cts:greekLit:tlg2017/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103292</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>2736148-2</t>
-  </si>
-  <si>
-    <t>Journal of eastern mediterranean archaeology and heritage studies</t>
-  </si>
-  <si>
-    <t>Pennsylvania State Univ. Press</t>
-  </si>
-  <si>
-    <t>University Park, Pa.</t>
-  </si>
-  <si>
-    <t>2166-3548</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>1.2013 -</t>
-  </si>
-  <si>
-    <t>2946742-1</t>
-  </si>
-  <si>
-    <t>Bulletin</t>
-  </si>
-  <si>
-    <t>Australian Archaeological Institute at Athens</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Volume 1 (2003)-</t>
-  </si>
-  <si>
-    <t>https://aaia.sydney.edu.au/aaia-publications/;http://www.bibliothek.uni-regensburg.de/ezeit/?2946742</t>
-  </si>
-  <si>
-    <t>2948245-8</t>
-  </si>
-  <si>
-    <t>Heidelberg;Stuttgart</t>
-  </si>
-  <si>
-    <t>Beiheft</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1]=64,2; [2]=65,2; [3]=66,2</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/nnu/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2929310</t>
-  </si>
-  <si>
-    <t>2951110-0</t>
-  </si>
-  <si>
-    <t>Etruscan and Italic studies</t>
-  </si>
-  <si>
-    <t>de Gruyter</t>
-  </si>
-  <si>
-    <t>Berlin;Boston</t>
-  </si>
-  <si>
-    <t>2566-9095</t>
-  </si>
-  <si>
-    <t>1292087-3</t>
-  </si>
-  <si>
-    <t>Volume 21, issue 1/2 (2018)-</t>
-  </si>
-  <si>
-    <t>DE-12;DE-109</t>
-  </si>
-  <si>
-    <t>2955222-9</t>
-  </si>
-  <si>
-    <t>https://www.archaeopress.com;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102761;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=104201</t>
-  </si>
-  <si>
-    <t>2960054-6</t>
-  </si>
-  <si>
-    <t>Deir el-Medina Thesaurus</t>
-  </si>
-  <si>
-    <t>Jean-Marie Guillon</t>
-  </si>
-  <si>
-    <t>[France?]</t>
-  </si>
-  <si>
-    <t>http://www.deirelmedinathesaurus.com/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103058</t>
-  </si>
-  <si>
-    <t>Jahresschrift für die Vorgeschichte der sächsisch-thüringischen Länder</t>
-  </si>
-  <si>
-    <t>Otto Hendel;Propylaeum</t>
-  </si>
-  <si>
-    <t>Halle;Heidelberg</t>
-  </si>
-  <si>
-    <t>2510-7135</t>
-  </si>
-  <si>
-    <t>1. Band (1902) - 31. Band (1939)</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/jsmv/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2960166</t>
-  </si>
-  <si>
-    <t>2960240-3</t>
-  </si>
-  <si>
-    <t>Athens University review of archaeology</t>
-  </si>
-  <si>
-    <t>National and Kapodistrian University of Athens, Faculty of History and Archaeology</t>
-  </si>
-  <si>
-    <t>eng;gre</t>
-  </si>
-  <si>
-    <t>FID-HIST-DE-12;FID-ALT-KA-DE-16</t>
-  </si>
-  <si>
-    <t>Volume 1 (May 2018)-</t>
-  </si>
-  <si>
-    <t>2964986-9</t>
-  </si>
-  <si>
-    <t>Aloys Hirt - Briefwechsel 1787-1837</t>
-  </si>
-  <si>
-    <t>FID-ALT-KA-DE-16;FID-KUNST-DE-16</t>
-  </si>
-  <si>
-    <t>https://dbis.uni-regensburg.de/frontdoor.php?titel_id=103080;https://aloys-hirt.bbaw.de</t>
-  </si>
-  <si>
-    <t>2971765-6</t>
-  </si>
-  <si>
-    <t>Funde und Ausgrabungen im Bezirk Trier</t>
-  </si>
-  <si>
-    <t>Rheinisches Landesmuseum Trier;Propylaeum</t>
-  </si>
-  <si>
-    <t>Trier;Heidelberg</t>
-  </si>
-  <si>
-    <t>2628-9032</t>
-  </si>
-  <si>
-    <t>[1.]1969 - [11.]1979; 12.1980 -</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/fuabt/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2971765</t>
-  </si>
-  <si>
-    <t>2972963-4</t>
-  </si>
-  <si>
-    <t>ProQuest ebook central</t>
-  </si>
-  <si>
-    <t>ProQuest LLC</t>
-  </si>
-  <si>
-    <t>Ann Arbor, Michigan</t>
-  </si>
-  <si>
-    <t>FID-ALT-DE-12;FID-ALT-AY-DE-16;FID-ALT-KA-DE-16;FID-HIST-DE-12;FID-HIST-DE-210</t>
-  </si>
-  <si>
-    <t>https://about.proquest.com/en/products-services/ebooks-main;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=102543</t>
-  </si>
-  <si>
-    <t>2973520-8</t>
-  </si>
-  <si>
-    <t>JSTOR</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>E-Books in classical studies</t>
-  </si>
-  <si>
-    <t>http://www.jstor.org/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103133</t>
-  </si>
-  <si>
-    <t>2974333-3</t>
-  </si>
-  <si>
-    <t>Das virtuelle Münzkabinett des Herzog Anton Ulrich-Museums</t>
-  </si>
-  <si>
-    <t>Herzog Anton Ulrich-Museum, Kunstmuseum des Landes Niedersachsen</t>
-  </si>
-  <si>
-    <t>Braunschweig</t>
-  </si>
-  <si>
-    <t>https://www.virtuelles-muenzkabinett.de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=104899</t>
-  </si>
-  <si>
-    <t>2987611-4</t>
-  </si>
-  <si>
-    <t>Materiali e strutture</t>
-  </si>
-  <si>
-    <t>Dipartimento di Storia, Disegno e Restauro dell'Architettura, Sapienza, Università di Roma</t>
-  </si>
-  <si>
-    <t>2385-2763</t>
-  </si>
-  <si>
-    <t>Nuova serie, 8, numero 15 (2019)-</t>
-  </si>
-  <si>
-    <t>http://www.nardecchiadigital.it/index.php?journal=MaterStrutt-QR&amp;page=issue&amp;op=archive;http://www.bibliothek.uni-regensburg.de/ezeit/?2987611</t>
-  </si>
-  <si>
-    <t>2775993-3</t>
-  </si>
-  <si>
-    <t>Deltion archaiologikon</t>
-  </si>
-  <si>
-    <t>4.1888(1889) - 8.1892</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.11588/diglit.22613;http://www.bibliothek.uni-regensburg.de/ezeit/?2775993</t>
-  </si>
-  <si>
-    <t>2998359-9</t>
-  </si>
-  <si>
-    <t>Acta praehistorica et archaeologica</t>
-  </si>
-  <si>
-    <t>Propylaeum;Leidorf</t>
-  </si>
-  <si>
-    <t>Heidelberg;Rahden</t>
-  </si>
-  <si>
-    <t>2699-0547</t>
-  </si>
-  <si>
-    <t>1.1970-</t>
-  </si>
-  <si>
-    <t>https://journals.ub.uni-heidelberg.de/index.php/apa/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2998359</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>DE-3;DE-7;DE-8;DE-9;DE-12;DE-18;DE-210;DE-M352;DE-19;DE-20;DE-26;DE-27;DE-28;DE-1102;DE-92;DE-29;DE-946;DE-46;DE-84;DE-89;DE-90;DE-95;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-517;DE-521;DE-703;DE-705;DE-739;DE-573;DE-150;DE-824;DE-551;DE-552;DE-Luen4;DE-Wim2;DE-542;DE-841;DE-546;DE-634;DE-706;DE-960-1;DE-960-3;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>2999901-7</t>
-  </si>
-  <si>
-    <t>Digitales Archiv des Erzbistums München und Freising</t>
-  </si>
-  <si>
-    <t>Erzdiözese München und Freising</t>
-  </si>
-  <si>
-    <t>https://www.erzbistum-muenchen.de/archiv-und-bibliothek/digitales-archiv;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103509</t>
-  </si>
-  <si>
-    <t>3006211-1</t>
-  </si>
-  <si>
-    <t>Bibliothēkē tēs en Athēnais Archaiologikēs Hetaireias</t>
-  </si>
-  <si>
-    <t>Ē en Athēnais Archaiologikē Etaireia</t>
-  </si>
-  <si>
-    <t>1 (1851)-</t>
-  </si>
-  <si>
-    <t>https://www.archetai.gr/index.php?p=content&amp;tion=1&amp;id=19&amp;lang=el;https://www.archetai.gr/index.php?p=content&amp;section=8&amp;id=67&amp;lang=;http://www.bibliothek.uni-regensburg.de/ezeit/?3006211</t>
-  </si>
-  <si>
-    <t>KW;KW</t>
-  </si>
-  <si>
-    <t>DE-12;DE-19;DE-20;DE-862;DE-863;DE-26;DE-1102;DE-29;DE-946;DE-90;DE-Mh39;DE-898;DE-155;DE-355;DE-Aug4;DE-37;DE-384;DE-473;DE-703;DE-739;DE-573;DE-150;DE-824;DE-634;DE-706;DE-523;DE-Re13</t>
-  </si>
-  <si>
-    <t>3006235-4</t>
-  </si>
-  <si>
-    <t>To ergon tēs Archaiologikēs Hetaireias en Athēnais</t>
-  </si>
-  <si>
-    <t>Hetaireia</t>
-  </si>
-  <si>
-    <t>1954-</t>
-  </si>
-  <si>
-    <t>https://www.archetai.gr/index.php?p=content&amp;ion=1&amp;id=22&amp;lang=el;http://www.bibliothek.uni-regensburg.de/ezeit/?3006235</t>
-  </si>
-  <si>
-    <t>3006240-8</t>
-  </si>
-  <si>
-    <t>O mentōr</t>
-  </si>
-  <si>
-    <t>3055379-9</t>
-  </si>
-  <si>
-    <t>Vol. 5, issue 19 (1992)-</t>
-  </si>
-  <si>
-    <t>https://www.archetai.gr/index.php?p=content§ion=1&amp;id=23&amp;lang=el;http://www.bibliothek.uni-regensburg.de/ezeit/?3006240</t>
-  </si>
-  <si>
-    <t>3022125-0</t>
-  </si>
-  <si>
-    <t>CoinHoards</t>
-  </si>
-  <si>
-    <t>American Numismatic Society</t>
-  </si>
-  <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
-    <t>http://coinhoards.org;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103976</t>
-  </si>
-  <si>
-    <t>3023121-8</t>
-  </si>
-  <si>
-    <t>WissKICommunity</t>
-  </si>
-  <si>
-    <t>Universitätsbibliothek Heidelberg</t>
-  </si>
-  <si>
-    <t>https://sempub.ub.uni-heidelberg.de/wisski_projekte/de;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=103992</t>
-  </si>
-  <si>
-    <t>3026089-9</t>
-  </si>
-  <si>
-    <t>eManual Alte Geschichte</t>
-  </si>
-  <si>
-    <t>Universität Hamburg, Fachbereich Geschichte, Arbeitsbereich Alte Geschichte</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>https://emanualaltegeschichte.blogs.uni-hamburg.de</t>
-  </si>
-  <si>
-    <t>3028559-8</t>
-  </si>
-  <si>
-    <t>Ricerche ellenistiche</t>
-  </si>
-  <si>
-    <t>2704-8292</t>
-  </si>
-  <si>
-    <t>1 (2020)-</t>
-  </si>
-  <si>
-    <t>3028894-0</t>
-  </si>
-  <si>
-    <t>Schaufenster FID-Lizenzen</t>
-  </si>
-  <si>
-    <t>ger;mul</t>
-  </si>
-  <si>
-    <t>https://biblio.ub.uni-heidelberg.de/propylaeumfidlizenzen/;http://dbis.uni-regensburg.de/frontdoor.php?titel_id=104083</t>
-  </si>
-  <si>
-    <t>2813079-0</t>
-  </si>
-  <si>
-    <t>Vjesnik za arheologiju i historiju dalmatinsku</t>
-  </si>
-  <si>
-    <t>Split</t>
-  </si>
-  <si>
-    <t>1849-5672</t>
-  </si>
-  <si>
-    <t>2217664-0</t>
-  </si>
-  <si>
-    <t>107.2014 -</t>
-  </si>
-  <si>
-    <t>DE-1a;DE-Wim7;DE-Re13</t>
+    <t>DE-1a;DE-8;DE-Wim7;DE-Re13</t>
   </si>
   <si>
     <t>2813965-3</t>
@@ -5989,15 +5995,15 @@
         <v>32</v>
       </c>
       <c r="X41" t="s">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="Y41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s">
         <v>134</v>
@@ -6006,13 +6012,13 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E42" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -6051,7 +6057,7 @@
         <v>32</v>
       </c>
       <c r="S42" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T42" t="s">
         <v>142</v>
@@ -6074,7 +6080,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s">
         <v>134</v>
@@ -6083,10 +6089,10 @@
         <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F43" t="s">
         <v>146</v>
@@ -6101,7 +6107,7 @@
         <v>32</v>
       </c>
       <c r="J43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s">
         <v>121</v>
@@ -6125,10 +6131,10 @@
         <v>32</v>
       </c>
       <c r="R43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T43" t="s">
         <v>142</v>
@@ -6143,15 +6149,15 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s">
         <v>134</v>
@@ -6160,13 +6166,13 @@
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G44" t="s">
         <v>194</v>
@@ -6202,10 +6208,10 @@
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T44" t="s">
         <v>142</v>
@@ -6228,7 +6234,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s">
         <v>134</v>
@@ -6237,13 +6243,13 @@
         <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E45" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F45" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -6252,7 +6258,7 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
         <v>58</v>
@@ -6279,10 +6285,10 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T45" t="s">
         <v>142</v>
@@ -6305,7 +6311,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -6314,10 +6320,10 @@
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F46" t="s">
         <v>44</v>
@@ -6329,7 +6335,7 @@
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J46" t="s">
         <v>58</v>
@@ -6356,7 +6362,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -6382,7 +6388,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s">
         <v>134</v>
@@ -6391,10 +6397,10 @@
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E47" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F47" t="s">
         <v>200</v>
@@ -6409,7 +6415,7 @@
         <v>32</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K47" t="s">
         <v>121</v>
@@ -6433,10 +6439,10 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S47" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="T47" t="s">
         <v>32</v>
@@ -6454,12 +6460,12 @@
         <v>206</v>
       </c>
       <c r="Y47" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s">
         <v>134</v>
@@ -6468,22 +6474,22 @@
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E48" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G48" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H48" t="s">
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J48" t="s">
         <v>32</v>
@@ -6510,10 +6516,10 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="S48" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T48" t="s">
         <v>142</v>
@@ -6531,12 +6537,12 @@
         <v>159</v>
       </c>
       <c r="Y48" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s">
         <v>134</v>
@@ -6545,10 +6551,10 @@
         <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E49" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F49" t="s">
         <v>101</v>
@@ -6560,7 +6566,7 @@
         <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J49" t="s">
         <v>58</v>
@@ -6587,10 +6593,10 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="T49" t="s">
         <v>142</v>
@@ -6613,22 +6619,22 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s">
         <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D50" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E50" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -6664,10 +6670,10 @@
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S50" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T50" t="s">
         <v>142</v>
@@ -6690,7 +6696,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -6699,10 +6705,10 @@
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E51" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F51" t="s">
         <v>200</v>
@@ -6714,7 +6720,7 @@
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J51" t="s">
         <v>58</v>
@@ -6741,7 +6747,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S51" t="s">
         <v>32</v>
@@ -6762,12 +6768,12 @@
         <v>79</v>
       </c>
       <c r="Y51" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s">
         <v>134</v>
@@ -6776,13 +6782,13 @@
         <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E52" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F52" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G52" t="s">
         <v>138</v>
@@ -6791,7 +6797,7 @@
         <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J52" t="s">
         <v>58</v>
@@ -6818,10 +6824,10 @@
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S52" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T52" t="s">
         <v>32</v>
@@ -6836,15 +6842,15 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Y52" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -6853,13 +6859,13 @@
         <v>323</v>
       </c>
       <c r="D53" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E53" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F53" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -6877,7 +6883,7 @@
         <v>121</v>
       </c>
       <c r="L53" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s">
         <v>32</v>
@@ -6895,7 +6901,7 @@
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S53" t="s">
         <v>32</v>
@@ -6921,7 +6927,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s">
         <v>134</v>
@@ -6930,25 +6936,25 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E54" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F54" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G54" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J54" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K54" t="s">
         <v>121</v>
@@ -6972,10 +6978,10 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="S54" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T54" t="s">
         <v>142</v>
@@ -6998,7 +7004,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -7007,13 +7013,13 @@
         <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E55" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G55" t="s">
         <v>138</v>
@@ -7075,7 +7081,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s">
         <v>134</v>
@@ -7084,10 +7090,10 @@
         <v>209</v>
       </c>
       <c r="D56" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E56" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F56" t="s">
         <v>211</v>
@@ -7099,16 +7105,16 @@
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J56" t="s">
         <v>179</v>
       </c>
       <c r="K56" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L56" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s">
         <v>32</v>
@@ -7126,10 +7132,10 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="S56" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="T56" t="s">
         <v>142</v>
@@ -7152,7 +7158,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -7161,13 +7167,13 @@
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F57" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G57" t="s">
         <v>138</v>
@@ -7203,7 +7209,7 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S57" t="s">
         <v>32</v>
@@ -7229,7 +7235,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s">
         <v>134</v>
@@ -7238,13 +7244,13 @@
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E58" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F58" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G58" t="s">
         <v>138</v>
@@ -7259,7 +7265,7 @@
         <v>58</v>
       </c>
       <c r="K58" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -7280,10 +7286,10 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="S58" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T58" t="s">
         <v>142</v>
@@ -7298,15 +7304,15 @@
         <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Y58" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B59" t="s">
         <v>134</v>
@@ -7315,16 +7321,16 @@
         <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E59" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F59" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G59" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H59" t="s">
         <v>32</v>
@@ -7360,7 +7366,7 @@
         <v>32</v>
       </c>
       <c r="S59" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="T59" t="s">
         <v>142</v>
@@ -7383,7 +7389,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B60" t="s">
         <v>134</v>
@@ -7392,16 +7398,16 @@
         <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E60" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G60" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
@@ -7413,7 +7419,7 @@
         <v>58</v>
       </c>
       <c r="K60" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -7434,10 +7440,10 @@
         <v>32</v>
       </c>
       <c r="R60" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="S60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="T60" t="s">
         <v>142</v>
@@ -7452,15 +7458,15 @@
         <v>32</v>
       </c>
       <c r="X60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y60" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s">
         <v>134</v>
@@ -7469,13 +7475,13 @@
         <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E61" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F61" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -7487,10 +7493,10 @@
         <v>32</v>
       </c>
       <c r="J61" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K61" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L61" t="s">
         <v>32</v>
@@ -7511,7 +7517,7 @@
         <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -7537,7 +7543,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B62" t="s">
         <v>134</v>
@@ -7546,13 +7552,13 @@
         <v>185</v>
       </c>
       <c r="D62" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E62" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F62" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G62" t="s">
         <v>31</v>
@@ -7582,16 +7588,16 @@
         <v>32</v>
       </c>
       <c r="P62" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q62" t="s">
         <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="S62" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T62" t="s">
         <v>142</v>
@@ -7614,7 +7620,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s">
         <v>134</v>
@@ -7623,13 +7629,13 @@
         <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F63" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G63" t="s">
         <v>31</v>
@@ -7647,7 +7653,7 @@
         <v>121</v>
       </c>
       <c r="L63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M63" t="s">
         <v>32</v>
@@ -7662,10 +7668,10 @@
         <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="R63" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="S63" t="s">
         <v>32</v>
@@ -7691,7 +7697,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B64" t="s">
         <v>134</v>
@@ -7700,13 +7706,13 @@
         <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E64" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -7718,13 +7724,13 @@
         <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K64" t="s">
         <v>121</v>
       </c>
       <c r="L64" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M64" t="s">
         <v>32</v>
@@ -7742,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="S64" t="s">
         <v>32</v>
@@ -7768,7 +7774,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B65" t="s">
         <v>134</v>
@@ -7777,13 +7783,13 @@
         <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E65" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F65" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
@@ -7819,7 +7825,7 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -7845,7 +7851,7 @@
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B66" t="s">
         <v>134</v>
@@ -7854,13 +7860,13 @@
         <v>209</v>
       </c>
       <c r="D66" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E66" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F66" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G66" t="s">
         <v>31</v>
@@ -7896,7 +7902,7 @@
         <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S66" t="s">
         <v>32</v>
@@ -7922,7 +7928,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B67" t="s">
         <v>134</v>
@@ -7931,13 +7937,13 @@
         <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E67" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F67" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -7949,7 +7955,7 @@
         <v>32</v>
       </c>
       <c r="J67" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K67" t="s">
         <v>121</v>
@@ -7973,7 +7979,7 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="S67" t="s">
         <v>32</v>
@@ -7999,7 +8005,7 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -8008,25 +8014,25 @@
         <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E68" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F68" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G68" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J68" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K68" t="s">
         <v>121</v>
@@ -8050,7 +8056,7 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -8076,7 +8082,7 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B69" t="s">
         <v>134</v>
@@ -8085,16 +8091,16 @@
         <v>209</v>
       </c>
       <c r="D69" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E69" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F69" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G69" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H69" t="s">
         <v>32</v>
@@ -8121,16 +8127,16 @@
         <v>32</v>
       </c>
       <c r="P69" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q69" t="s">
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="S69" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T69" t="s">
         <v>142</v>
@@ -8153,7 +8159,7 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B70" t="s">
         <v>134</v>
@@ -8162,16 +8168,16 @@
         <v>209</v>
       </c>
       <c r="D70" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E70" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F70" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G70" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H70" t="s">
         <v>32</v>
@@ -8201,13 +8207,13 @@
         <v>32</v>
       </c>
       <c r="Q70" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="R70" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="S70" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="T70" t="s">
         <v>142</v>
@@ -8230,7 +8236,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B71" t="s">
         <v>134</v>
@@ -8239,13 +8245,13 @@
         <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E71" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -8257,10 +8263,10 @@
         <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K71" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L71" t="s">
         <v>32</v>
@@ -8284,7 +8290,7 @@
         <v>32</v>
       </c>
       <c r="S71" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T71" t="s">
         <v>142</v>
@@ -8307,7 +8313,7 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s">
         <v>134</v>
@@ -8316,16 +8322,16 @@
         <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E72" t="s">
         <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G72" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
@@ -8340,7 +8346,7 @@
         <v>121</v>
       </c>
       <c r="L72" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M72" t="s">
         <v>32</v>
@@ -8358,10 +8364,10 @@
         <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="S72" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="T72" t="s">
         <v>142</v>
@@ -8384,7 +8390,7 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B73" t="s">
         <v>134</v>
@@ -8393,13 +8399,13 @@
         <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E73" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F73" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G73" t="s">
         <v>31</v>
@@ -8408,10 +8414,10 @@
         <v>32</v>
       </c>
       <c r="I73" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J73" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K73" t="s">
         <v>121</v>
@@ -8432,16 +8438,16 @@
         <v>32</v>
       </c>
       <c r="Q73" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R73" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="S73" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T73" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="U73" t="s">
         <v>32</v>
@@ -8453,15 +8459,15 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Y73" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s">
         <v>134</v>
@@ -8470,13 +8476,13 @@
         <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E74" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F74" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G74" t="s">
         <v>31</v>
@@ -8488,7 +8494,7 @@
         <v>32</v>
       </c>
       <c r="J74" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s">
         <v>121</v>
@@ -8512,10 +8518,10 @@
         <v>32</v>
       </c>
       <c r="R74" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="S74" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="T74" t="s">
         <v>142</v>
@@ -8538,7 +8544,7 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
@@ -8547,22 +8553,22 @@
         <v>73</v>
       </c>
       <c r="D75" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E75" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F75" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G75" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
       </c>
       <c r="I75" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J75" t="s">
         <v>32</v>
@@ -8589,10 +8595,10 @@
         <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="S75" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="T75" t="s">
         <v>142</v>
@@ -8615,22 +8621,22 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B76" t="s">
         <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D76" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E76" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F76" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
@@ -8639,7 +8645,7 @@
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J76" t="s">
         <v>34</v>
@@ -8660,16 +8666,16 @@
         <v>32</v>
       </c>
       <c r="P76" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q76" t="s">
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="S76" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T76" t="s">
         <v>142</v>
@@ -8692,7 +8698,7 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B77" t="s">
         <v>134</v>
@@ -8701,13 +8707,13 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E77" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F77" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -8743,10 +8749,10 @@
         <v>32</v>
       </c>
       <c r="R77" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S77" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="T77" t="s">
         <v>142</v>
@@ -8769,22 +8775,22 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D78" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E78" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F78" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G78" t="s">
         <v>31</v>
@@ -8793,16 +8799,16 @@
         <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J78" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K78" t="s">
         <v>121</v>
       </c>
       <c r="L78" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M78" t="s">
         <v>32</v>
@@ -8814,13 +8820,13 @@
         <v>32</v>
       </c>
       <c r="P78" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Q78" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R78" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="S78" t="s">
         <v>32</v>
@@ -8846,22 +8852,22 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D79" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E79" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F79" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -8870,16 +8876,16 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J79" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K79" t="s">
         <v>121</v>
       </c>
       <c r="L79" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M79" t="s">
         <v>32</v>
@@ -8891,13 +8897,13 @@
         <v>32</v>
       </c>
       <c r="P79" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q79" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="R79" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="S79" t="s">
         <v>32</v>
@@ -8923,7 +8929,7 @@
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -8932,13 +8938,13 @@
         <v>323</v>
       </c>
       <c r="D80" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E80" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F80" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G80" t="s">
         <v>31</v>
@@ -8947,7 +8953,7 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J80" t="s">
         <v>58</v>
@@ -8968,13 +8974,13 @@
         <v>32</v>
       </c>
       <c r="P80" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Q80" t="s">
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S80" t="s">
         <v>32</v>
@@ -9000,7 +9006,7 @@
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -9009,13 +9015,13 @@
         <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E81" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F81" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G81" t="s">
         <v>57</v>
@@ -9024,7 +9030,7 @@
         <v>32</v>
       </c>
       <c r="I81" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J81" t="s">
         <v>58</v>
@@ -9048,10 +9054,10 @@
         <v>32</v>
       </c>
       <c r="Q81" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="R81" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="S81" t="s">
         <v>32</v>
@@ -9077,7 +9083,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B82" t="s">
         <v>134</v>
@@ -9086,13 +9092,13 @@
         <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E82" t="s">
         <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G82" t="s">
         <v>108</v>
@@ -9104,7 +9110,7 @@
         <v>32</v>
       </c>
       <c r="J82" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K82" t="s">
         <v>121</v>
@@ -9128,10 +9134,10 @@
         <v>32</v>
       </c>
       <c r="R82" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="S82" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="T82" t="s">
         <v>142</v>
@@ -9154,7 +9160,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B83" t="s">
         <v>134</v>
@@ -9163,10 +9169,10 @@
         <v>73</v>
       </c>
       <c r="D83" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E83" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F83" t="s">
         <v>44</v>
@@ -9184,10 +9190,10 @@
         <v>32</v>
       </c>
       <c r="K83" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L83" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M83" t="s">
         <v>32</v>
@@ -9208,7 +9214,7 @@
         <v>32</v>
       </c>
       <c r="S83" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="T83" t="s">
         <v>32</v>
@@ -9231,7 +9237,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B84" t="s">
         <v>134</v>
@@ -9240,13 +9246,13 @@
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E84" t="s">
         <v>100</v>
       </c>
       <c r="F84" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G84" t="s">
         <v>138</v>
@@ -9261,10 +9267,10 @@
         <v>58</v>
       </c>
       <c r="K84" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L84" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M84" t="s">
         <v>32</v>
@@ -9285,7 +9291,7 @@
         <v>32</v>
       </c>
       <c r="S84" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="T84" t="s">
         <v>32</v>
@@ -9308,7 +9314,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B85" t="s">
         <v>134</v>
@@ -9317,10 +9323,10 @@
         <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E85" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F85" t="s">
         <v>273</v>
@@ -9332,7 +9338,7 @@
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J85" t="s">
         <v>58</v>
@@ -9359,10 +9365,10 @@
         <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="S85" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="T85" t="s">
         <v>142</v>
@@ -9385,7 +9391,7 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B86" t="s">
         <v>134</v>
@@ -9394,16 +9400,16 @@
         <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E86" t="s">
         <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G86" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
@@ -9439,7 +9445,7 @@
         <v>32</v>
       </c>
       <c r="S86" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="T86" t="s">
         <v>142</v>
@@ -9462,7 +9468,7 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B87" t="s">
         <v>134</v>
@@ -9474,10 +9480,10 @@
         <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F87" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G87" t="s">
         <v>31</v>
@@ -9486,10 +9492,10 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="J87" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K87" t="s">
         <v>121</v>
@@ -9510,13 +9516,13 @@
         <v>32</v>
       </c>
       <c r="Q87" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="R87" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="S87" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T87" t="s">
         <v>142</v>
@@ -9534,12 +9540,12 @@
         <v>159</v>
       </c>
       <c r="Y87" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B88" t="s">
         <v>134</v>
@@ -9548,16 +9554,16 @@
         <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E88" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F88" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G88" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
@@ -9593,7 +9599,7 @@
         <v>32</v>
       </c>
       <c r="S88" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="T88" t="s">
         <v>142</v>
@@ -9616,16 +9622,16 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B89" t="s">
         <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D89" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E89" t="s">
         <v>305</v>
@@ -9634,19 +9640,19 @@
         <v>306</v>
       </c>
       <c r="G89" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
       </c>
       <c r="I89" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J89" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K89" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L89" t="s">
         <v>32</v>
@@ -9661,7 +9667,7 @@
         <v>32</v>
       </c>
       <c r="P89" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q89" t="s">
         <v>32</v>
@@ -9670,10 +9676,10 @@
         <v>32</v>
       </c>
       <c r="S89" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="T89" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="U89" t="s">
         <v>32</v>
@@ -9693,7 +9699,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -9702,13 +9708,13 @@
         <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E90" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F90" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G90" t="s">
         <v>138</v>
@@ -9717,10 +9723,10 @@
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J90" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K90" t="s">
         <v>121</v>
@@ -9744,7 +9750,7 @@
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="S90" t="s">
         <v>32</v>
@@ -9770,7 +9776,7 @@
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B91" t="s">
         <v>134</v>
@@ -9779,13 +9785,13 @@
         <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E91" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F91" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G91" t="s">
         <v>138</v>
@@ -9821,10 +9827,10 @@
         <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="S91" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="T91" t="s">
         <v>142</v>
@@ -9842,12 +9848,12 @@
         <v>159</v>
       </c>
       <c r="Y91" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B92" t="s">
         <v>134</v>
@@ -9856,13 +9862,13 @@
         <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E92" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F92" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -9874,13 +9880,13 @@
         <v>32</v>
       </c>
       <c r="J92" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K92" t="s">
         <v>121</v>
       </c>
       <c r="L92" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M92" t="s">
         <v>32</v>
@@ -9898,13 +9904,13 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="S92" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T92" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="U92" t="s">
         <v>32</v>
@@ -9924,22 +9930,22 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D93" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E93" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F93" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G93" t="s">
         <v>138</v>
@@ -9948,7 +9954,7 @@
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J93" t="s">
         <v>58</v>
@@ -9972,10 +9978,10 @@
         <v>32</v>
       </c>
       <c r="Q93" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="R93" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="S93" t="s">
         <v>32</v>
@@ -9996,12 +10002,12 @@
         <v>206</v>
       </c>
       <c r="Y93" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B94" t="s">
         <v>134</v>
@@ -10010,10 +10016,10 @@
         <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E94" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F94" t="s">
         <v>44</v>
@@ -10055,7 +10061,7 @@
         <v>32</v>
       </c>
       <c r="S94" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="T94" t="s">
         <v>32</v>
@@ -10078,7 +10084,7 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B95" t="s">
         <v>134</v>
@@ -10087,13 +10093,13 @@
         <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E95" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F95" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G95" t="s">
         <v>108</v>
@@ -10132,7 +10138,7 @@
         <v>32</v>
       </c>
       <c r="S95" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="T95" t="s">
         <v>142</v>
@@ -10155,7 +10161,7 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
@@ -10164,13 +10170,13 @@
         <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E96" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F96" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -10179,10 +10185,10 @@
         <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J96" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K96" t="s">
         <v>121</v>
@@ -10200,16 +10206,16 @@
         <v>32</v>
       </c>
       <c r="P96" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q96" t="s">
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="S96" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T96" t="s">
         <v>142</v>
@@ -10232,7 +10238,7 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -10241,16 +10247,16 @@
         <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E97" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F97" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G97" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H97" t="s">
         <v>32</v>
@@ -10262,7 +10268,7 @@
         <v>58</v>
       </c>
       <c r="K97" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
@@ -10283,7 +10289,7 @@
         <v>32</v>
       </c>
       <c r="R97" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="S97" t="s">
         <v>32</v>
@@ -10309,7 +10315,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B98" t="s">
         <v>134</v>
@@ -10318,13 +10324,13 @@
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E98" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F98" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
@@ -10339,7 +10345,7 @@
         <v>32</v>
       </c>
       <c r="K98" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
@@ -10363,7 +10369,7 @@
         <v>32</v>
       </c>
       <c r="S98" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="T98" t="s">
         <v>142</v>
@@ -10386,7 +10392,7 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B99" t="s">
         <v>134</v>
@@ -10395,13 +10401,13 @@
         <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E99" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F99" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G99" t="s">
         <v>31</v>
@@ -10410,7 +10416,7 @@
         <v>32</v>
       </c>
       <c r="I99" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J99" t="s">
         <v>58</v>
@@ -10437,10 +10443,10 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="S99" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="T99" t="s">
         <v>142</v>
@@ -10458,12 +10464,12 @@
         <v>159</v>
       </c>
       <c r="Y99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B100" t="s">
         <v>134</v>
@@ -10472,13 +10478,13 @@
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E100" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F100" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G100" t="s">
         <v>138</v>
@@ -10493,10 +10499,10 @@
         <v>58</v>
       </c>
       <c r="K100" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L100" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M100" t="s">
         <v>32</v>
@@ -10517,7 +10523,7 @@
         <v>32</v>
       </c>
       <c r="S100" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="T100" t="s">
         <v>32</v>
@@ -10540,7 +10546,7 @@
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B101" t="s">
         <v>134</v>
@@ -10549,13 +10555,13 @@
         <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E101" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F101" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G101" t="s">
         <v>138</v>
@@ -10573,7 +10579,7 @@
         <v>308</v>
       </c>
       <c r="L101" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M101" t="s">
         <v>32</v>
@@ -10594,7 +10600,7 @@
         <v>32</v>
       </c>
       <c r="S101" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="T101" t="s">
         <v>32</v>
@@ -10617,7 +10623,7 @@
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B102" t="s">
         <v>134</v>
@@ -10626,16 +10632,16 @@
         <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E102" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F102" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G102" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -10671,7 +10677,7 @@
         <v>32</v>
       </c>
       <c r="S102" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="T102" t="s">
         <v>142</v>
@@ -10694,7 +10700,7 @@
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B103" t="s">
         <v>134</v>
@@ -10703,10 +10709,10 @@
         <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E103" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F103" t="s">
         <v>76</v>
@@ -10718,10 +10724,10 @@
         <v>32</v>
       </c>
       <c r="I103" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J103" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K103" t="s">
         <v>121</v>
@@ -10745,10 +10751,10 @@
         <v>32</v>
       </c>
       <c r="R103" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="S103" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="T103" t="s">
         <v>32</v>
@@ -10771,7 +10777,7 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B104" t="s">
         <v>134</v>
@@ -10780,7 +10786,7 @@
         <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E104" t="s">
         <v>100</v>
@@ -10789,7 +10795,7 @@
         <v>287</v>
       </c>
       <c r="G104" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H104" t="s">
         <v>32</v>
@@ -10822,10 +10828,10 @@
         <v>32</v>
       </c>
       <c r="R104" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S104" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="T104" t="s">
         <v>142</v>
@@ -10848,7 +10854,7 @@
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B105" t="s">
         <v>134</v>
@@ -10857,13 +10863,13 @@
         <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E105" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F105" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -10872,7 +10878,7 @@
         <v>32</v>
       </c>
       <c r="I105" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J105" t="s">
         <v>58</v>
@@ -10899,13 +10905,13 @@
         <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="S105" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="T105" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="U105" t="s">
         <v>32</v>
@@ -10917,15 +10923,15 @@
         <v>32</v>
       </c>
       <c r="X105" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Y105" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B106" t="s">
         <v>134</v>
@@ -10934,13 +10940,13 @@
         <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E106" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F106" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G106" t="s">
         <v>31</v>
@@ -10979,7 +10985,7 @@
         <v>32</v>
       </c>
       <c r="S106" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T106" t="s">
         <v>142</v>
@@ -11002,7 +11008,7 @@
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B107" t="s">
         <v>134</v>
@@ -11011,16 +11017,16 @@
         <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E107" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F107" t="s">
         <v>287</v>
       </c>
       <c r="G107" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H107" t="s">
         <v>32</v>
@@ -11053,13 +11059,13 @@
         <v>32</v>
       </c>
       <c r="R107" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="S107" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="T107" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="U107" t="s">
         <v>32</v>
@@ -11071,15 +11077,15 @@
         <v>32</v>
       </c>
       <c r="X107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y107" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B108" t="s">
         <v>134</v>
@@ -11088,10 +11094,10 @@
         <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E108" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F108" t="s">
         <v>287</v>
@@ -11130,10 +11136,10 @@
         <v>32</v>
       </c>
       <c r="R108" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="S108" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="T108" t="s">
         <v>142</v>
@@ -11156,7 +11162,7 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B109" t="s">
         <v>134</v>
@@ -11165,10 +11171,10 @@
         <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E109" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F109" t="s">
         <v>287</v>
@@ -11204,13 +11210,13 @@
         <v>32</v>
       </c>
       <c r="Q109" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="R109" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="S109" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="T109" t="s">
         <v>142</v>
@@ -11233,7 +11239,7 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B110" t="s">
         <v>134</v>
@@ -11242,13 +11248,13 @@
         <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E110" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F110" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G110" t="s">
         <v>138</v>
@@ -11263,7 +11269,7 @@
         <v>58</v>
       </c>
       <c r="K110" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L110" t="s">
         <v>32</v>
@@ -11287,7 +11293,7 @@
         <v>32</v>
       </c>
       <c r="S110" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="T110" t="s">
         <v>142</v>
@@ -11310,7 +11316,7 @@
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B111" t="s">
         <v>134</v>
@@ -11319,16 +11325,16 @@
         <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E111" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F111" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G111" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H111" t="s">
         <v>32</v>
@@ -11337,10 +11343,10 @@
         <v>32</v>
       </c>
       <c r="J111" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K111" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L111" t="s">
         <v>32</v>
@@ -11364,7 +11370,7 @@
         <v>32</v>
       </c>
       <c r="S111" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="T111" t="s">
         <v>142</v>
@@ -11387,7 +11393,7 @@
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B112" t="s">
         <v>134</v>
@@ -11396,13 +11402,13 @@
         <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E112" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F112" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -11441,7 +11447,7 @@
         <v>32</v>
       </c>
       <c r="S112" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="T112" t="s">
         <v>142</v>
@@ -11464,7 +11470,7 @@
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
@@ -11473,10 +11479,10 @@
         <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E113" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F113" t="s">
         <v>200</v>
@@ -11488,7 +11494,7 @@
         <v>32</v>
       </c>
       <c r="I113" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="J113" t="s">
         <v>58</v>
@@ -11515,7 +11521,7 @@
         <v>32</v>
       </c>
       <c r="R113" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="S113" t="s">
         <v>32</v>
@@ -11541,7 +11547,7 @@
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B114" t="s">
         <v>134</v>
@@ -11550,16 +11556,16 @@
         <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E114" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F114" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G114" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H114" t="s">
         <v>32</v>
@@ -11595,7 +11601,7 @@
         <v>32</v>
       </c>
       <c r="S114" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="T114" t="s">
         <v>142</v>
@@ -11618,7 +11624,7 @@
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -11627,25 +11633,25 @@
         <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E115" t="s">
         <v>100</v>
       </c>
       <c r="F115" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G115" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H115" t="s">
         <v>32</v>
       </c>
       <c r="I115" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J115" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K115" t="s">
         <v>121</v>
@@ -11666,10 +11672,10 @@
         <v>32</v>
       </c>
       <c r="Q115" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="R115" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="S115" t="s">
         <v>32</v>
@@ -11687,15 +11693,15 @@
         <v>32</v>
       </c>
       <c r="X115" t="s">
-        <v>79</v>
+        <v>806</v>
       </c>
       <c r="Y115" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B116" t="s">
         <v>134</v>
@@ -11704,22 +11710,22 @@
         <v>209</v>
       </c>
       <c r="D116" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E116" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F116" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G116" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H116" t="s">
         <v>32</v>
       </c>
       <c r="I116" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="J116" t="s">
         <v>58</v>
@@ -11743,13 +11749,13 @@
         <v>32</v>
       </c>
       <c r="Q116" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="R116" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="S116" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="T116" t="s">
         <v>142</v>
@@ -11772,7 +11778,7 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B117" t="s">
         <v>134</v>
@@ -11781,13 +11787,13 @@
         <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E117" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="F117" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11799,10 +11805,10 @@
         <v>32</v>
       </c>
       <c r="J117" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K117" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L117" t="s">
         <v>32</v>
@@ -11826,7 +11832,7 @@
         <v>32</v>
       </c>
       <c r="S117" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="T117" t="s">
         <v>142</v>
@@ -11849,7 +11855,7 @@
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B118" t="s">
         <v>134</v>
@@ -11858,13 +11864,13 @@
         <v>209</v>
       </c>
       <c r="D118" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E118" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F118" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G118" t="s">
         <v>31</v>
@@ -11873,7 +11879,7 @@
         <v>32</v>
       </c>
       <c r="I118" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="J118" t="s">
         <v>179</v>
@@ -11894,16 +11900,16 @@
         <v>32</v>
       </c>
       <c r="P118" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Q118" t="s">
         <v>32</v>
       </c>
       <c r="R118" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="S118" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="T118" t="s">
         <v>215</v>
@@ -11926,7 +11932,7 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
@@ -11935,10 +11941,10 @@
         <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E119" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F119" t="s">
         <v>200</v>
@@ -11950,7 +11956,7 @@
         <v>32</v>
       </c>
       <c r="I119" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J119" t="s">
         <v>58</v>
@@ -11977,7 +11983,7 @@
         <v>32</v>
       </c>
       <c r="R119" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="S119" t="s">
         <v>32</v>
@@ -11986,10 +11992,10 @@
         <v>32</v>
       </c>
       <c r="U119" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="V119" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="W119" t="s">
         <v>32</v>
@@ -11998,7 +12004,7 @@
         <v>206</v>
       </c>
       <c r="Y119" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
